--- a/doc/Workbook1_170920.xlsx
+++ b/doc/Workbook1_170920.xlsx
@@ -2289,9 +2289,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2356,7 +2357,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2371,6 +2372,7 @@
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2874,8 +2876,8 @@
         <v>717</v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" ref="U3:U66" si="0">K3&amp;B3&amp;","&amp;A3&amp;L3&amp;C3&amp;M3&amp;E3&amp;N3&amp;D3&amp;O3&amp;I3&amp;P3&amp;F3&amp;Q3&amp;G3&amp;R3&amp;H3&amp;S3&amp;J3&amp;T3</f>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.0723734,14.4306759]},"properties":{"id":"PRG2","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Traffic sensor, but also a refence point to CHMIs http://portal.chmi.cz/files/portal/docs/uoco/web_generator/locality/pollution_locality/loc_ALEG_CZ.html","ostation":1}},</v>
+        <f t="shared" ref="U3:U66" si="0">K3&amp;A3&amp;","&amp;B3&amp;L3&amp;C3&amp;M3&amp;E3&amp;N3&amp;D3&amp;O3&amp;I3&amp;P3&amp;F3&amp;Q3&amp;G3&amp;R3&amp;H3&amp;S3&amp;J3&amp;T3</f>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4306759,50.0723734]},"properties":{"id":"PRG2","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Traffic sensor, but also a refence point to CHMIs http://portal.chmi.cz/files/portal/docs/uoco/web_generator/locality/pollution_locality/loc_ALEG_CZ.html","ostation":1}},</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -2941,7 +2943,7 @@
       </c>
       <c r="U4" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.0737929,14.434207]},"properties":{"id":"PRG3","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":0,"info":"Residential area with school.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.434207,50.0737929]},"properties":{"id":"PRG3","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":0,"info":"Residential area with school.","ostation":0}},</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3007,7 +3009,7 @@
       </c>
       <c r="U5" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.081394,14.4427897]},"properties":{"id":"PRG4","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":0,"info":"Reference measurement to CHMI AIM station in park Riegrovy sady: http://portal.chmi.cz/files/portal/docs/uoco/web_generator/locality/pollution_locality/loc_ARIE_CZ.html","ostation":1}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4427897,50.081394]},"properties":{"id":"PRG4","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":0,"info":"Reference measurement to CHMI AIM station in park Riegrovy sady: http://portal.chmi.cz/files/portal/docs/uoco/web_generator/locality/pollution_locality/loc_ARIE_CZ.html","ostation":1}},</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3073,7 +3075,7 @@
       </c>
       <c r="U6" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.09055,14.43973]},"properties":{"id":"PRG5","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy intersection, metro/tram/bus station.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.43973,50.09055]},"properties":{"id":"PRG5","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy intersection, metro/tram/bus station.","ostation":0}},</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3139,7 +3141,7 @@
       </c>
       <c r="U7" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.0860711,14.414311]},"properties":{"id":"PRG6","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Transit through UNESCO World Heritage site 21000 cars/working day.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.414311,50.0860711]},"properties":{"id":"PRG6","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Transit through UNESCO World Heritage site 21000 cars/working day.","ostation":0}},</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3205,7 +3207,7 @@
       </c>
       <c r="U8" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.072854,14.408244]},"properties":{"id":"PRG7","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy street with people and traffic.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.408244,50.072854]},"properties":{"id":"PRG7","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy street with people and traffic.","ostation":0}},</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3271,7 +3273,7 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.0749651,14.4050826]},"properties":{"id":"PRG8","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy road with people and traffic.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4050826,50.0749651]},"properties":{"id":"PRG8","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy road with people and traffic.","ostation":0}},</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3337,7 +3339,7 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.0716768,14.3993835]},"properties":{"id":"PRG9","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Traffic from Pilsen x Blanka tunnel. Above the tunnel is also a CHMI AIM http://portal.chmi.cz/files/portal/docs/uoco/web_generator/locality/pollution_locality/loc_ASMI_CZ.html","ostation":1}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.3993835,50.0716768]},"properties":{"id":"PRG9","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Traffic from Pilsen x Blanka tunnel. Above the tunnel is also a CHMI AIM http://portal.chmi.cz/files/portal/docs/uoco/web_generator/locality/pollution_locality/loc_ASMI_CZ.html","ostation":1}},</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3403,7 +3405,7 @@
       </c>
       <c r="U11" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.0893636,14.3821469]},"properties":{"id":"PRG10","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Residential area, exits from Blanka tunnel.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.3821469,50.0893636]},"properties":{"id":"PRG10","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Residential area, exits from Blanka tunnel.","ostation":0}},</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3469,7 +3471,7 @@
       </c>
       <c r="U12" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.1002118,14.3964891]},"properties":{"id":"PRG11","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Farmers market, huge roundabout, heavy traffic to airport.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.3964891,50.1002118]},"properties":{"id":"PRG11","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Farmers market, huge roundabout, heavy traffic to airport.","ostation":0}},</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3535,7 +3537,7 @@
       </c>
       <c r="U13" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.1147822,14.4442736]},"properties":{"id":"PRG12","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Exit from tunnel Blanka, riverside.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4442736,50.1147822]},"properties":{"id":"PRG12","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Exit from tunnel Blanka, riverside.","ostation":0}},</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3601,7 +3603,7 @@
       </c>
       <c r="U14" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.1176375,14.4611478]},"properties":{"id":"PRG13","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Residential area on hill with 90.000 cars/working day.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4611478,50.1176375]},"properties":{"id":"PRG13","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Residential area on hill with 90.000 cars/working day.","ostation":0}},</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3667,7 +3669,7 @@
       </c>
       <c r="U15" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.103246,14.444381]},"properties":{"id":"PRG14","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy road, Vltava river level, Billa parking.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.444381,50.103246]},"properties":{"id":"PRG14","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy road, Vltava river level, Billa parking.","ostation":0}},</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3733,7 +3735,7 @@
       </c>
       <c r="U16" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.1043091,14.4810011]},"properties":{"id":"PRG15","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy intersection, gas station, overpass.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4810011,50.1043091]},"properties":{"id":"PRG15","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy intersection, gas station, overpass.","ostation":0}},</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3799,7 +3801,7 @@
       </c>
       <c r="U17" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.0691655,14.4665657]},"properties":{"id":"PRG16","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Road in walley, parking, Ministry of enviroment.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4665657,50.0691655]},"properties":{"id":"PRG16","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Road in walley, parking, Ministry of enviroment.","ostation":0}},</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3865,7 +3867,7 @@
       </c>
       <c r="U18" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.0486962,14.4807536]},"properties":{"id":"PRG17","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"120.000 cars/working day with a lot of heavy trucks due to lack of the south - east - north transit ring around Prague.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4807536,50.0486962]},"properties":{"id":"PRG17","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"120.000 cars/working day with a lot of heavy trucks due to lack of the south - east - north transit ring around Prague.","ostation":0}},</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3931,7 +3933,7 @@
       </c>
       <c r="U19" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.0336998,14.4101525]},"properties":{"id":"PRG18","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy bridge intersection.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4101525,50.0336998]},"properties":{"id":"PRG18","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy bridge intersection.","ostation":0}},</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -3997,7 +3999,7 @@
       </c>
       <c r="U20" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.0609116,14.4094995]},"properties":{"id":"PRG19","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Bus station, heavy traffic nearby.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4094995,50.0609116]},"properties":{"id":"PRG19","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Bus station, heavy traffic nearby.","ostation":0}},</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4063,7 +4065,7 @@
       </c>
       <c r="U21" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.0702677,14.3721686]},"properties":{"id":"PRG20","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Main exit to Pilsen, hill, valley.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.3721686,50.0702677]},"properties":{"id":"PRG20","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Main exit to Pilsen, hill, valley.","ostation":0}},</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4129,7 +4131,7 @@
       </c>
       <c r="U22" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.095637,14.395216]},"properties":{"id":"PRG21","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":10,"info":"Exit from tunnel Blanka, heavy traffic.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.395216,50.095637]},"properties":{"id":"PRG21","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":10,"info":"Exit from tunnel Blanka, heavy traffic.","ostation":0}},</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4195,7 +4197,7 @@
       </c>
       <c r="U23" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.098568,14.369785]},"properties":{"id":"PRG22","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":6,"info":"Near Evropská, main route to Airport.","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.369785,50.098568]},"properties":{"id":"PRG22","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":6,"info":"Near Evropská, main route to Airport.","ostation":0}},</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4261,7 +4263,7 @@
       </c>
       <c r="U24" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.066329,14.446313]},"properties":{"id":"PRG23","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":4,"info":"Valley, school, gas station, reference station CHMI AIM http://portal.chmi.cz/files/portal/docs/uoco/web_generator/locality/pollution_locality/loc_AVRS_CZ.html","ostation":1}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.446313,50.066329]},"properties":{"id":"PRG23","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":4,"info":"Valley, school, gas station, reference station CHMI AIM http://portal.chmi.cz/files/portal/docs/uoco/web_generator/locality/pollution_locality/loc_AVRS_CZ.html","ostation":1}},</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4327,7 +4329,7 @@
       </c>
       <c r="U25" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.045904,14.447976]},"properties":{"id":"PRG24","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":5,"info":"Shopping centre, residential area","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.447976,50.045904]},"properties":{"id":"PRG24","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":5,"info":"Shopping centre, residential area","ostation":0}},</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4393,7 +4395,7 @@
       </c>
       <c r="U26" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.061311,14.399677]},"properties":{"id":"PRG25","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":9,"info":"Narrow street, shortcut to D5 (Rozvadov, Munich)","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.399677,50.061311]},"properties":{"id":"PRG25","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":9,"info":"Narrow street, shortcut to D5 (Rozvadov, Munich)","ostation":0}},</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4459,7 +4461,7 @@
       </c>
       <c r="U27" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.055646,14.373534]},"properties":{"id":"PRG26","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":9,"info":"Radlice, valley, heavy traffic","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.373534,50.055646]},"properties":{"id":"PRG26","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":9,"info":"Radlice, valley, heavy traffic","ostation":0}},</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4525,7 +4527,7 @@
       </c>
       <c r="U28" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.07702,14.336019]},"properties":{"id":"PRG27","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":10,"info":"Prague circle, near gas station, main exit","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.336019,50.07702]},"properties":{"id":"PRG27","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":10,"info":"Prague circle, near gas station, main exit","ostation":0}},</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4591,7 +4593,7 @@
       </c>
       <c r="U29" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.092182,14.511385]},"properties":{"id":"PRG28","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":9,"info":"Valley, heavy eastbound traffic","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.511385,50.092182]},"properties":{"id":"PRG28","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":9,"info":"Valley, heavy eastbound traffic","ostation":0}},</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4657,7 +4659,7 @@
       </c>
       <c r="U30" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.090912,14.470429]},"properties":{"id":"PRG29","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":6,"info":"residential area with heavy traffic","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.470429,50.090912]},"properties":{"id":"PRG29","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":6,"info":"residential area with heavy traffic","ostation":0}},</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4723,7 +4725,7 @@
       </c>
       <c r="U31" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[50.077431,14.501194]},"properties":{"id":"PRG30","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":6,"info":"Valley, residential area","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.501194,50.077431]},"properties":{"id":"PRG30","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":6,"info":"Valley, residential area","ostation":0}},</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4789,7 +4791,7 @@
       </c>
       <c r="U32" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.466098,35.049889]},"properties":{"id":"DNK1","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"MOST-City\", bus station, entrance to the \"Central bridge\", crowded place","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.049889,48.466098]},"properties":{"id":"DNK1","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"MOST-City\", bus station, entrance to the \"Central bridge\", crowded place","ostation":2}},</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4855,7 +4857,7 @@
       </c>
       <c r="U33" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4642516,35.0460373]},"properties":{"id":"DNK2","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Heroiv Maidanu Square, bus station, pedestrian area, huge traffic","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0460373,48.4642516]},"properties":{"id":"DNK2","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Heroiv Maidanu Square, bus station, pedestrian area, huge traffic","ostation":2}},</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4921,7 +4923,7 @@
       </c>
       <c r="U34" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4663951,35.0653546]},"properties":{"id":"DNK3","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Festival pier, pedestrian area, crowded place, the longest promenade in Ukraine","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0653546,48.4663951]},"properties":{"id":"DNK3","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Festival pier, pedestrian area, crowded place, the longest promenade in Ukraine","ostation":2}},</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -4987,7 +4989,7 @@
       </c>
       <c r="U35" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4084019,35.0733477]},"properties":{"id":"DNK4","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Cafe \"Fantaziya\", pedestrian area, small green area, housing area, schools","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0733477,48.4084019]},"properties":{"id":"DNK4","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Cafe \"Fantaziya\", pedestrian area, small green area, housing area, schools","ostation":2}},</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5053,7 +5055,7 @@
       </c>
       <c r="U36" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4243839,35.0629357]},"properties":{"id":"DNK5","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Kosmichnaya Street, roundabout, reference measurement station, huge traffic","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0629357,48.4243839]},"properties":{"id":"DNK5","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Kosmichnaya Street, roundabout, reference measurement station, huge traffic","ostation":2}},</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5119,7 +5121,7 @@
       </c>
       <c r="U37" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4039489,35.1318213]},"properties":{"id":"DNK6","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"House of culture \"Energetyk\", reference measurement station, residential area","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.1318213,48.4039489]},"properties":{"id":"DNK6","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"House of culture \"Energetyk\", reference measurement station, residential area","ostation":2}},</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5185,7 +5187,7 @@
       </c>
       <c r="U38" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4872575,34.9474725]},"properties":{"id":"DNK7","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Novokodatskyi Park, ice arena, no traffic, city hospital","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9474725,48.4872575]},"properties":{"id":"DNK7","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Novokodatskyi Park, ice arena, no traffic, city hospital","ostation":2}},</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5251,7 +5253,7 @@
       </c>
       <c r="U39" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4761675,34.9778414]},"properties":{"id":"DNK8","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Serhiia Nihoiana Avenue, reference measurement station, governmental building, metallurgical plant","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9778414,48.4761675]},"properties":{"id":"DNK8","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Serhiia Nihoiana Avenue, reference measurement station, governmental building, metallurgical plant","ostation":2}},</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5317,7 +5319,7 @@
       </c>
       <c r="U40" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.509473,34.9899219]},"properties":{"id":"DNK9","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Frunzenskyi\", huge traffic, residential area, shopping market","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9899219,48.509473]},"properties":{"id":"DNK9","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Frunzenskyi\", huge traffic, residential area, shopping market","ostation":2}},</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5383,7 +5385,7 @@
       </c>
       <c r="U41" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.5310254,35.0141552]},"properties":{"id":"DNK10","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Housing area \"Livoberezhnyi-3\", residential area, schools, small traffic","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0141552,48.5310254]},"properties":{"id":"DNK10","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Housing area \"Livoberezhnyi-3\", residential area, schools, small traffic","ostation":2}},</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5449,7 +5451,7 @@
       </c>
       <c r="U42" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.498245,35.089979]},"properties":{"id":"DNK11","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Metallurgical plant \"Interpipe\", reference measurement station","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.089979,48.498245]},"properties":{"id":"DNK11","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Metallurgical plant \"Interpipe\", reference measurement station","ostation":2}},</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5515,7 +5517,7 @@
       </c>
       <c r="U43" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.515423,35.05493]},"properties":{"id":"DNK12","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Market \"Obraztsova\", Kalynova Street, schools, playgrounds, moderate traffic","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.05493,48.515423]},"properties":{"id":"DNK12","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Market \"Obraztsova\", Kalynova Street, schools, playgrounds, moderate traffic","ostation":2}},</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5581,7 +5583,7 @@
       </c>
       <c r="U44" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4374452,35.0063704]},"properties":{"id":"DNK13","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Modern park \"Green Grove\", crowded place, green area, no traffic","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0063704,48.4374452]},"properties":{"id":"DNK13","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Modern park \"Green Grove\", crowded place, green area, no traffic","ostation":2}},</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5647,7 +5649,7 @@
       </c>
       <c r="U45" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.5266199,35.0327317]},"properties":{"id":"DNK14","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"Karavan\", huge traffic, crowded place, large market","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0327317,48.5266199]},"properties":{"id":"DNK14","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"Karavan\", huge traffic, crowded place, large market","ostation":2}},</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5713,7 +5715,7 @@
       </c>
       <c r="U46" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4772814,35.0152727]},"properties":{"id":"DNK15","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Central railway station, crowded place, huge traffic","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0152727,48.4772814]},"properties":{"id":"DNK15","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Central railway station, crowded place, huge traffic","ostation":2}},</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5779,7 +5781,7 @@
       </c>
       <c r="U47" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4719534,35.0228672]},"properties":{"id":"DNK16","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Central city market \"Ozerka\", large parking slot, huge traffic, crowded place, central park","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0228672,48.4719534]},"properties":{"id":"DNK16","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Central city market \"Ozerka\", large parking slot, huge traffic, crowded place, central park","ostation":2}},</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5845,7 +5847,7 @@
       </c>
       <c r="U48" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.5216731,34.9524035]},"properties":{"id":"DNK17","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"City Cardiac-Hospital #20, Amur-Nyzhnodniprovskyi District, no traffic","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9524035,48.5216731]},"properties":{"id":"DNK17","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"City Cardiac-Hospital #20, Amur-Nyzhnodniprovskyi District, no traffic","ostation":2}},</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5911,7 +5913,7 @@
       </c>
       <c r="U49" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.3958008,35.0276852]},"properties":{"id":"DNK18","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Topolia\", city hospital, schools","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0276852,48.3958008]},"properties":{"id":"DNK18","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Topolia\", city hospital, schools","ostation":2}},</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -5977,7 +5979,7 @@
       </c>
       <c r="U50" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.3936032,34.9801057]},"properties":{"id":"DNK19","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Housing area \"Krotova\", far from city center, schools, kindergarten","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9801057,48.3936032]},"properties":{"id":"DNK19","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Housing area \"Krotova\", far from city center, schools, kindergarten","ostation":2}},</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6043,7 +6045,7 @@
       </c>
       <c r="U51" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4081437,35.0010162]},"properties":{"id":"DNK20","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Kvartal 12\", large intersection, market, shopping mall, huge traffic, pedestrian area, schools, kindergartens","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0010162,48.4081437]},"properties":{"id":"DNK20","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Kvartal 12\", large intersection, market, shopping mall, huge traffic, pedestrian area, schools, kindergartens","ostation":2}},</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6109,7 +6111,7 @@
       </c>
       <c r="U52" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.480765,34.9060767]},"properties":{"id":"DNK21","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Housing area \"Parus\", schools, pedestrian area, bus station, small traffic","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9060767,48.480765]},"properties":{"id":"DNK21","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Housing area \"Parus\", schools, pedestrian area, bus station, small traffic","ostation":2}},</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6175,7 +6177,7 @@
       </c>
       <c r="U53" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.425396,35.0231467]},"properties":{"id":"DNK22","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"Dafi\", large roundabout, huge traffic, crowded place","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0231467,48.425396]},"properties":{"id":"DNK22","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"Dafi\", large roundabout, huge traffic, crowded place","ostation":2}},</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6241,7 +6243,7 @@
       </c>
       <c r="U54" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.428169,35.0094192]},"properties":{"id":"DNK23","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Tytova street, shopping mall \"Silpo\", small traffic, residential area, street market, schools, kindergarten","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0094192,48.428169]},"properties":{"id":"DNK23","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Tytova street, shopping mall \"Silpo\", small traffic, residential area, street market, schools, kindergarten","ostation":2}},</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6307,7 +6309,7 @@
       </c>
       <c r="U55" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.450057,35.0593666]},"properties":{"id":"DNK24","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"Nagorka\", huge traffic, universities, hospitals","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0593666,48.450057]},"properties":{"id":"DNK24","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"Nagorka\", huge traffic, universities, hospitals","ostation":2}},</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6373,7 +6375,7 @@
       </c>
       <c r="U56" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.461718,34.969635]},"properties":{"id":"DNK25","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Petrovskogo street, shopping mall \"Varus\", children's clinical hospital #6, groceries stores, huge traffic","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.969635,48.461718]},"properties":{"id":"DNK25","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Petrovskogo street, shopping mall \"Varus\", children's clinical hospital #6, groceries stores, huge traffic","ostation":2}},</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6439,7 +6441,7 @@
       </c>
       <c r="U57" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4475965,35.0009117]},"properties":{"id":"DNK26","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Kaverina street, shopping malls, farmer's market, schools, huge traffic","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0009117,48.4475965]},"properties":{"id":"DNK26","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Kaverina street, shopping malls, farmer's market, schools, huge traffic","ostation":2}},</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6505,7 +6507,7 @@
       </c>
       <c r="U58" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4819102,35.0640127]},"properties":{"id":"DNK27","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Solnechnyi\", huge traffic, small city park","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0640127,48.4819102]},"properties":{"id":"DNK27","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Solnechnyi\", huge traffic, small city park","ostation":2}},</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6571,7 +6573,7 @@
       </c>
       <c r="U59" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4916231,35.0488214]},"properties":{"id":"DNK28","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Clinical Hospital #9, moderate traffic, schools","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0488214,48.4916231]},"properties":{"id":"DNK28","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Clinical Hospital #9, moderate traffic, schools","ostation":2}},</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6637,7 +6639,7 @@
       </c>
       <c r="U60" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4607313,35.0815529]},"properties":{"id":"DNK29","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Monastyrskyi island, Aquarium, green area, city park, no traffic","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0815529,48.4607313]},"properties":{"id":"DNK29","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Monastyrskyi island, Aquarium, green area, city park, no traffic","ostation":2}},</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6703,7 +6705,7 @@
       </c>
       <c r="U61" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.4626939,35.0700553]},"properties":{"id":"DNK30","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Park \"Shevchenko\", no traffic, green area","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0700553,48.4626939]},"properties":{"id":"DNK30","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Park \"Shevchenko\", no traffic, green area","ostation":2}},</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6769,7 +6771,7 @@
       </c>
       <c r="U62" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.932023,27.546835]},"properties":{"id":"MSQ1","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Arlouskaya st., busy intersection with heavy truck traffic, pedestrians, bikeroads","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.546835,53.932023]},"properties":{"id":"MSQ1","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Arlouskaya st., busy intersection with heavy truck traffic, pedestrians, bikeroads","ostation":2}},</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6835,7 +6837,7 @@
       </c>
       <c r="U63" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.945368,27.671079]},"properties":{"id":"MSQ2","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Uručča, residential area with open access to the heavily loaded outer city ring","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.671079,53.945368]},"properties":{"id":"MSQ2","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Uručča, residential area with open access to the heavily loaded outer city ring","ostation":2}},</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6901,7 +6903,7 @@
       </c>
       <c r="U64" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.923499,27.608928]},"properties":{"id":"MSQ3","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Independence ave/Kalinina sq., city center, heavy traffic","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.608928,53.923499]},"properties":{"id":"MSQ3","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Independence ave/Kalinina sq., city center, heavy traffic","ostation":2}},</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -6967,7 +6969,7 @@
       </c>
       <c r="U65" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.920724,27.587808]},"properties":{"id":"MSQ4","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Kolasa st., Technical university campus, heavy traffic","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.587808,53.920724]},"properties":{"id":"MSQ4","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Kolasa st., Technical university campus, heavy traffic","ostation":2}},</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7033,7 +7035,7 @@
       </c>
       <c r="U66" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.887069,27.580108]},"properties":{"id":"MSQ5","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Partizansky ave, traffic interchange, heavy traffic, railway nearby","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.580108,53.887069]},"properties":{"id":"MSQ5","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Partizansky ave, traffic interchange, heavy traffic, railway nearby","ostation":2}},</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7098,8 +7100,8 @@
         <v>717</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U130" si="1">K67&amp;B67&amp;","&amp;A67&amp;L67&amp;C67&amp;M67&amp;E67&amp;N67&amp;D67&amp;O67&amp;I67&amp;P67&amp;F67&amp;Q67&amp;G67&amp;R67&amp;H67&amp;S67&amp;J67&amp;T67</f>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.878242,27.609916]},"properties":{"id":"MSQ6","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Vaneeva st., traffic circle, lots of pedestrians","ostation":2}},</v>
+        <f t="shared" ref="U67:U130" si="1">K67&amp;A67&amp;","&amp;B67&amp;L67&amp;C67&amp;M67&amp;E67&amp;N67&amp;D67&amp;O67&amp;I67&amp;P67&amp;F67&amp;Q67&amp;G67&amp;R67&amp;H67&amp;S67&amp;J67&amp;T67</f>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.609916,53.878242]},"properties":{"id":"MSQ6","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Vaneeva st., traffic circle, lots of pedestrians","ostation":2}},</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7165,7 +7167,7 @@
       </c>
       <c r="U68" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.875016,27.568392]},"properties":{"id":"MSQ7","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Mayakovskogo st., heavy traffic, pedestrians","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.568392,53.875016]},"properties":{"id":"MSQ7","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Mayakovskogo st., heavy traffic, pedestrians","ostation":2}},</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7231,7 +7233,7 @@
       </c>
       <c r="U69" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.862187,27.606739]},"properties":{"id":"MSQ8","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Plehanova st., main crossroads in large residential district","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.606739,53.862187]},"properties":{"id":"MSQ8","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Plehanova st., main crossroads in large residential district","ostation":2}},</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7297,7 +7299,7 @@
       </c>
       <c r="U70" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.892688,27.639528]},"properties":{"id":"MSQ9","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Vaupshasov st., heavy transit traffic","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.639528,53.892688]},"properties":{"id":"MSQ9","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Vaupshasov st., heavy transit traffic","ostation":2}},</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7363,7 +7365,7 @@
       </c>
       <c r="U71" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.879158,27.655988]},"properties":{"id":"MSQ10","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Radialnaya, heavy traffic, highly polluted industrial area (tractor works)","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.655988,53.879158]},"properties":{"id":"MSQ10","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Radialnaya, heavy traffic, highly polluted industrial area (tractor works)","ostation":2}},</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7429,7 +7431,7 @@
       </c>
       <c r="U72" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.839494,27.53292]},"properties":{"id":"MSQ11","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Kizhevatova st., heavy traffic, city entrance","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.53292,53.839494]},"properties":{"id":"MSQ11","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Kizhevatova st., heavy traffic, city entrance","ostation":2}},</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7495,7 +7497,7 @@
       </c>
       <c r="U73" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.895705,27.538454]},"properties":{"id":"MSQ12","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Zetkin st., local traffic interchange","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.538454,53.895705]},"properties":{"id":"MSQ12","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Zetkin st., local traffic interchange","ostation":2}},</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7561,7 +7563,7 @@
       </c>
       <c r="U74" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.909921,27.497873]},"properties":{"id":"MSQ13","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Pushkin ave, 2nd city ring, heavy loaded","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.497873,53.909921]},"properties":{"id":"MSQ13","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Pushkin ave, 2nd city ring, heavy loaded","ostation":2}},</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7627,7 +7629,7 @@
       </c>
       <c r="U75" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.916667,27.41299]},"properties":{"id":"MSQ14","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Outer city ring near large residential area","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.41299,53.916667]},"properties":{"id":"MSQ14","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Outer city ring near large residential area","ostation":2}},</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7693,7 +7695,7 @@
       </c>
       <c r="U76" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.913358,27.523712]},"properties":{"id":"MSQ15","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Timiryazev st., heavy traffic, next to the reference station of BelHydroMet","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.523712,53.913358]},"properties":{"id":"MSQ15","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Timiryazev st., heavy traffic, next to the reference station of BelHydroMet","ostation":2}},</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7759,7 +7761,7 @@
       </c>
       <c r="U77" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.947473,27.71229]},"properties":{"id":"MSQ16","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Uručča, residential area, next to the reference station of BelHydroMet","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.71229,53.947473]},"properties":{"id":"MSQ16","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Uručča, residential area, next to the reference station of BelHydroMet","ostation":2}},</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7825,7 +7827,7 @@
       </c>
       <c r="U78" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.913675,27.615162]},"properties":{"id":"MSQ17","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"City center, local traffic interchange","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.615162,53.913675]},"properties":{"id":"MSQ17","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"City center, local traffic interchange","ostation":2}},</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7891,7 +7893,7 @@
       </c>
       <c r="U79" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.941037,27.575205]},"properties":{"id":"MSQ18","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":1,"trafic":0,"info":"Mozhaisky st., calm residential area","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.575205,53.941037]},"properties":{"id":"MSQ18","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":1,"trafic":0,"info":"Mozhaisky st., calm residential area","ostation":2}},</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -7957,7 +7959,7 @@
       </c>
       <c r="U80" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.969048,27.530621]},"properties":{"id":"MSQ19","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Outer city ring","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.530621,53.969048]},"properties":{"id":"MSQ19","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Outer city ring","ostation":2}},</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8023,7 +8025,7 @@
       </c>
       <c r="U81" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.913675,27.615162]},"properties":{"id":"MSQ20","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":0,"info":"Center of city Botanic garden","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.615162,53.913675]},"properties":{"id":"MSQ20","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":0,"info":"Center of city Botanic garden","ostation":2}},</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8089,7 +8091,7 @@
       </c>
       <c r="U82" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[53.907919,27.576477]},"properties":{"id":"MSQ21","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Victory sq., traffic circle, heavy traffic, lots of pedestrians, bikeroad","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.576477,53.907919]},"properties":{"id":"MSQ21","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Victory sq., traffic circle, heavy traffic, lots of pedestrians, bikeroad","ostation":2}},</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8155,7 +8157,7 @@
       </c>
       <c r="U83" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8745284,10.0322098]},"properties":{"id":"FID1","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"High traffic noth west","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0322098,44.8745284]},"properties":{"id":"FID1","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"High traffic noth west","ostation":0}},</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8221,7 +8223,7 @@
       </c>
       <c r="U84" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8783103,10.0456464]},"properties":{"id":"FID2","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"high traffic noth direction","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0456464,44.8783103]},"properties":{"id":"FID2","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"high traffic noth direction","ostation":0}},</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8287,7 +8289,7 @@
       </c>
       <c r="U85" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8726004,10.0818445]},"properties":{"id":"FID3","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"high traffic outlet","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0818445,44.8726004]},"properties":{"id":"FID3","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"high traffic outlet","ostation":0}},</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8353,7 +8355,7 @@
       </c>
       <c r="U86" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8546638,10.103773]},"properties":{"id":"FID4","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"high traffic para direction","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.103773,44.8546638]},"properties":{"id":"FID4","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"high traffic para direction","ostation":0}},</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8419,7 +8421,7 @@
       </c>
       <c r="U87" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8892491,10.0885394]},"properties":{"id":"FID5","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"highway","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0885394,44.8892491]},"properties":{"id":"FID5","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"highway","ostation":0}},</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8485,7 +8487,7 @@
       </c>
       <c r="U88" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8702484,10.0756915]},"properties":{"id":"FID6","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"north \"tangenziale\"","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0756915,44.8702484]},"properties":{"id":"FID6","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"north \"tangenziale\"","ostation":0}},</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8551,7 +8553,7 @@
       </c>
       <c r="U89" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8527512,10.0810989]},"properties":{"id":"FID7","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"south \"tangenziale\"","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0810989,44.8527512]},"properties":{"id":"FID7","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"south \"tangenziale\"","ostation":0}},</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8617,7 +8619,7 @@
       </c>
       <c r="U90" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8569343,10.067409]},"properties":{"id":"FID8","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"high traffic city road","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.067409,44.8569343]},"properties":{"id":"FID8","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"high traffic city road","ostation":0}},</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8683,7 +8685,7 @@
       </c>
       <c r="U91" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8503751,10.0301846]},"properties":{"id":"FID9","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"to south west main direction","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0301846,44.8503751]},"properties":{"id":"FID9","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"to south west main direction","ostation":0}},</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8749,7 +8751,7 @@
       </c>
       <c r="U92" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8499981,10.0416445]},"properties":{"id":"FID10","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"hospital","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0416445,44.8499981]},"properties":{"id":"FID10","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"hospital","ostation":0}},</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8815,7 +8817,7 @@
       </c>
       <c r="U93" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8346367,10.0905268]},"properties":{"id":"FID11","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Santa margherita rural area medium traffic","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0905268,44.8346367]},"properties":{"id":"FID11","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Santa margherita rural area medium traffic","ostation":0}},</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8881,7 +8883,7 @@
       </c>
       <c r="U94" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.9114386,10.0319385]},"properties":{"id":"FID12","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Castione marchesi rural area traffic","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0319385,44.9114386]},"properties":{"id":"FID12","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Castione marchesi rural area traffic","ostation":0}},</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -8947,7 +8949,7 @@
       </c>
       <c r="U95" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8647034,10.0089359]},"properties":{"id":"FID13","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Fornio","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0089359,44.8647034]},"properties":{"id":"FID13","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Fornio","ostation":0}},</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9013,7 +9015,7 @@
       </c>
       <c r="U96" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.9028947,10.0941657]},"properties":{"id":"FID14","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Chiusa Ferranda","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0941657,44.9028947]},"properties":{"id":"FID14","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Chiusa Ferranda","ostation":0}},</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9079,7 +9081,7 @@
       </c>
       <c r="U97" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8669923,10.0519396]},"properties":{"id":"FID15","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Via Piave-","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0519396,44.8669923]},"properties":{"id":"FID15","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Via Piave-","ostation":0}},</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9145,7 +9147,7 @@
       </c>
       <c r="U98" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8557685,10.0593264]},"properties":{"id":"FID16","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Ongaro School trafic during school period","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0593264,44.8557685]},"properties":{"id":"FID16","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Ongaro School trafic during school period","ostation":0}},</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9211,7 +9213,7 @@
       </c>
       <c r="U99" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8630894,10.0642737]},"properties":{"id":"FID17","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"De amicis School traffic during school period","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0642737,44.8630894]},"properties":{"id":"FID17","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"De amicis School traffic during school period","ostation":0}},</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9277,7 +9279,7 @@
       </c>
       <c r="U100" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8626996,10.0741583]},"properties":{"id":"FID18","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Via Martiri Medium traffic during all day","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0741583,44.8626996]},"properties":{"id":"FID18","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Via Martiri Medium traffic during all day","ostation":0}},</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9343,7 +9345,7 @@
       </c>
       <c r="U101" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8538183,10.0622714]},"properties":{"id":"FID19","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Via zaccagnini residential area","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0622714,44.8538183]},"properties":{"id":"FID19","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"Via zaccagnini residential area","ostation":0}},</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9409,7 +9411,7 @@
       </c>
       <c r="U102" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8610585,10.0525436]},"properties":{"id":"FID20","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"conad luce","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0525436,44.8610585]},"properties":{"id":"FID20","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"conad luce","ostation":0}},</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9475,7 +9477,7 @@
       </c>
       <c r="U103" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8675834,10.0619855]},"properties":{"id":"FID21","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"guernica","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0619855,44.8675834]},"properties":{"id":"FID21","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"guernica","ostation":0}},</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9541,7 +9543,7 @@
       </c>
       <c r="U104" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8557269,10.0490608]},"properties":{"id":"FID22","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"piazza maria callas","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0490608,44.8557269]},"properties":{"id":"FID22","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"piazza maria callas","ostation":0}},</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9607,7 +9609,7 @@
       </c>
       <c r="U105" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8362931,10.050491]},"properties":{"id":"FID23","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"via nenni","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.050491,44.8362931]},"properties":{"id":"FID23","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"via nenni","ostation":0}},</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9673,7 +9675,7 @@
       </c>
       <c r="U106" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8553189,10.0736944]},"properties":{"id":"FID24","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"vizio caffè","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0736944,44.8553189]},"properties":{"id":"FID24","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":1,"info":"vizio caffè","ostation":0}},</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9739,7 +9741,7 @@
       </c>
       <c r="U107" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8652442,10.0615868]},"properties":{"id":"FID25","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"City center park","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0615868,44.8652442]},"properties":{"id":"FID25","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"City center park","ostation":0}},</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9805,7 +9807,7 @@
       </c>
       <c r="U108" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8590859,10.0642149]},"properties":{"id":"FID26","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"green area near low traffic road","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0642149,44.8590859]},"properties":{"id":"FID26","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"green area near low traffic road","ostation":0}},</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9871,7 +9873,7 @@
       </c>
       <c r="U109" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8582227,10.0753759]},"properties":{"id":"FID27","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"green area near low traffic road","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0753759,44.8582227]},"properties":{"id":"FID27","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"green area near low traffic road","ostation":0}},</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -9937,7 +9939,7 @@
       </c>
       <c r="U110" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8582151,10.0552558]},"properties":{"id":"FID28","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"green area near low traffic road","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0552558,44.8582151]},"properties":{"id":"FID28","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"green area near low traffic road","ostation":0}},</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10003,7 +10005,7 @@
       </c>
       <c r="U111" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8510233,10.04649]},"properties":{"id":"FID29","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"Cycling line near medium traffic with trees","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.04649,44.8510233]},"properties":{"id":"FID29","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"Cycling line near medium traffic with trees","ostation":0}},</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10069,7 +10071,7 @@
       </c>
       <c r="U112" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[44.8669229,10.0612604]},"properties":{"id":"FID30","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"city center main place no traffic zone","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[10.0612604,44.8669229]},"properties":{"id":"FID30","group":"centalinedalbasso.org","city":"Fidenza","color":"#FF0000","height":2,"trafic":0,"info":"city center main place no traffic zone","ostation":0}},</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10135,7 +10137,7 @@
       </c>
       <c r="U113" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.467912,19.075728]},"properties":{"id":"BUD1","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Közvágóhíd megálló) Busy intersection with people. traffic. party places. theatre nearby.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.075728,47.467912]},"properties":{"id":"BUD1","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Közvágóhíd megálló) Busy intersection with people. traffic. party places. theatre nearby.","ostation":2}},</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10201,7 +10203,7 @@
       </c>
       <c r="U114" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.466466,19.080888]},"properties":{"id":"BUD2","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Közvágóhíd. Gubacsi út Tesco) moderate busy road close to intersection. people. traffic. party places. and mall close.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.080888,47.466466]},"properties":{"id":"BUD2","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Közvágóhíd. Gubacsi út Tesco) moderate busy road close to intersection. people. traffic. party places. and mall close.","ostation":2}},</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10267,7 +10269,7 @@
       </c>
       <c r="U115" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.479634,19.067378]},"properties":{"id":"BUD3","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Boráros tér-fent) Busy intersection. bus station. with people. traffic. many office buildings.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.067378,47.479634]},"properties":{"id":"BUD3","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Boráros tér-fent) Busy intersection. bus station. with people. traffic. many office buildings.","ostation":2}},</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10333,7 +10335,7 @@
       </c>
       <c r="U116" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.479971,19.066933]},"properties":{"id":"BUD4","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1,"trafic":1,"info":"(Boráros tér -lent) Busy intersection with people. traffic. many office buildings.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.066933,47.479971]},"properties":{"id":"BUD4","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1,"trafic":1,"info":"(Boráros tér -lent) Busy intersection with people. traffic. many office buildings.","ostation":2}},</v>
       </c>
     </row>
     <row r="117" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10399,7 +10401,7 @@
       </c>
       <c r="U117" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.481309,19.069323]},"properties":{"id":"BUD5","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Boráros tér. Mester-Angyal u.) moderate busy road close to busy roads. many shops. restaurants. building blocks.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.069323,47.481309]},"properties":{"id":"BUD5","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Boráros tér. Mester-Angyal u.) moderate busy road close to busy roads. many shops. restaurants. building blocks.","ostation":2}},</v>
       </c>
     </row>
     <row r="118" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10465,7 +10467,7 @@
       </c>
       <c r="U118" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.485891,19.069358]},"properties":{"id":"BUD6","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Corvin-negyed) busy intersection with people. traffic. schools and hospital nearby.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.069358,47.485891]},"properties":{"id":"BUD6","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Corvin-negyed) busy intersection with people. traffic. schools and hospital nearby.","ostation":2}},</v>
       </c>
     </row>
     <row r="119" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10531,7 +10533,7 @@
       </c>
       <c r="U119" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.487658,19.066088]},"properties":{"id":"BUD7","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Near Corvin-negyed and Kálvin tér) moderate busy road with many office buildings. building blocks.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.066088,47.487658]},"properties":{"id":"BUD7","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Near Corvin-negyed and Kálvin tér) moderate busy road with many office buildings. building blocks.","ostation":2}},</v>
       </c>
     </row>
     <row r="120" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10597,7 +10599,7 @@
       </c>
       <c r="U120" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.489297,19.06179]},"properties":{"id":"BUD8","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Kálvin tér) busy intersection with people. traffic. schools and hospital nearby.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.06179,47.489297]},"properties":{"id":"BUD8","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Kálvin tér) busy intersection with people. traffic. schools and hospital nearby.","ostation":2}},</v>
       </c>
     </row>
     <row r="121" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10663,7 +10665,7 @@
       </c>
       <c r="U121" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.510258,19.055664]},"properties":{"id":"BUD9","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Nyugati pu) busy intersection with people. traffic. schools and mall nearby.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.055664,47.510258]},"properties":{"id":"BUD9","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Nyugati pu) busy intersection with people. traffic. schools and mall nearby.","ostation":2}},</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10729,7 +10731,7 @@
       </c>
       <c r="U122" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.512085,19.053931]},"properties":{"id":"BUD10","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near Nyugati pu. Kádár u) moderate busy street with people. traffic. hospital nearby.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.053931,47.512085]},"properties":{"id":"BUD10","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near Nyugati pu. Kádár u) moderate busy street with people. traffic. hospital nearby.","ostation":2}},</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10795,7 +10797,7 @@
       </c>
       <c r="U123" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.514736,19.037154]},"properties":{"id":"BUD11","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Margit krt) busy road with with people. traffic. hospital nearby.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.037154,47.514736]},"properties":{"id":"BUD11","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Margit krt) busy road with with people. traffic. hospital nearby.","ostation":2}},</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10861,7 +10863,7 @@
       </c>
       <c r="U124" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.507904,19.027087]},"properties":{"id":"BUD12","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Széna tér) Busy intersection. bus station. with people. traffic. many office buildings. mall.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.027087,47.507904]},"properties":{"id":"BUD12","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Széna tér) Busy intersection. bus station. with people. traffic. many office buildings. mall.","ostation":2}},</v>
       </c>
     </row>
     <row r="125" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10927,7 +10929,7 @@
       </c>
       <c r="U125" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.508516,19.023974]},"properties":{"id":"BUD13","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(near Széna tér) moderate busy street with people. traffic. mall nearby.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.023974,47.508516]},"properties":{"id":"BUD13","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(near Széna tér) moderate busy street with people. traffic. mall nearby.","ostation":2}},</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -10993,7 +10995,7 @@
       </c>
       <c r="U126" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.501953,19.024256]},"properties":{"id":"BUD14","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Déli pu) Busy intersection. bus station. with people. traffic. many office buildings. schools and a big park.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.024256,47.501953]},"properties":{"id":"BUD14","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Déli pu) Busy intersection. bus station. with people. traffic. many office buildings. schools and a big park.","ostation":2}},</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11059,7 +11061,7 @@
       </c>
       <c r="U127" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.502454,19.021809]},"properties":{"id":"BUD15","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(near Déli pu. Városmajor u.) moderate busy street with people. traffic. many office buildings. schools and a hospital nearby.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.021809,47.502454]},"properties":{"id":"BUD15","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(near Déli pu. Városmajor u.) moderate busy street with people. traffic. many office buildings. schools and a hospital nearby.","ostation":2}},</v>
       </c>
     </row>
     <row r="128" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11125,7 +11127,7 @@
       </c>
       <c r="U128" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.496672,19.078942]},"properties":{"id":"BUD16","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":0,"info":"(II.János Pál pápa tér), green park surrounded by residential buildings and moderate traffic.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.078942,47.496672]},"properties":{"id":"BUD16","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":0,"info":"(II.János Pál pápa tér), green park surrounded by residential buildings and moderate traffic.","ostation":2}},</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11191,7 +11193,7 @@
       </c>
       <c r="U129" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.540964,19.041137]},"properties":{"id":"BUD17","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Flórián tér) Busy intersection, bus, tram station, with people, traffic, many resitential buildings, hospital, shopping mall, schools.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.041137,47.540964]},"properties":{"id":"BUD17","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Flórián tér) Busy intersection, bus, tram station, with people, traffic, many resitential buildings, hospital, shopping mall, schools.","ostation":2}},</v>
       </c>
     </row>
     <row r="130" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11257,7 +11259,7 @@
       </c>
       <c r="U130" t="str">
         <f t="shared" si="1"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.543455,19.038189]},"properties":{"id":"BUD18","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(nearFlórián tér, Kórház u.) moderate busy street with many residential building blocks, shops, people, hospital.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.038189,47.543455]},"properties":{"id":"BUD18","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(nearFlórián tér, Kórház u.) moderate busy street with many residential building blocks, shops, people, hospital.","ostation":2}},</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11322,8 +11324,8 @@
         <v>717</v>
       </c>
       <c r="U131" t="str">
-        <f t="shared" ref="U131:U172" si="2">K131&amp;B131&amp;","&amp;A131&amp;L131&amp;C131&amp;M131&amp;E131&amp;N131&amp;D131&amp;O131&amp;I131&amp;P131&amp;F131&amp;Q131&amp;G131&amp;R131&amp;H131&amp;S131&amp;J131&amp;T131</f>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.518866,19.088348]},"properties":{"id":"BUD19","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Kacsóh Pongrác úti megálló) Busy intersection, entry to highway, bus, tram station, with people, traffic, many resitential buildings, hospital, close to UNESCO city park and bath.","ostation":2}},</v>
+        <f t="shared" ref="U131:U172" si="2">K131&amp;A131&amp;","&amp;B131&amp;L131&amp;C131&amp;M131&amp;E131&amp;N131&amp;D131&amp;O131&amp;I131&amp;P131&amp;F131&amp;Q131&amp;G131&amp;R131&amp;H131&amp;S131&amp;J131&amp;T131</f>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.088348,47.518866]},"properties":{"id":"BUD19","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Kacsóh Pongrác úti megálló) Busy intersection, entry to highway, bus, tram station, with people, traffic, many resitential buildings, hospital, close to UNESCO city park and bath.","ostation":2}},</v>
       </c>
     </row>
     <row r="132" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11389,7 +11391,7 @@
       </c>
       <c r="U132" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.518239,19.086176]},"properties":{"id":"BUD20","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near to Kacsóh Pongrác), busy road with public transport, traffic, people,beside the UNESCO city park, residential buildings.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.086176,47.518239]},"properties":{"id":"BUD20","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near to Kacsóh Pongrác), busy road with public transport, traffic, people,beside the UNESCO city park, residential buildings.","ostation":2}},</v>
       </c>
     </row>
     <row r="133" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11455,7 +11457,7 @@
       </c>
       <c r="U133" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.560772,19.090144]},"properties":{"id":"BUD21","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Újpest-Városközpont) busy intersection with public transport,traffic, people,residential building blocks, shops.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.090144,47.560772]},"properties":{"id":"BUD21","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Újpest-Városközpont) busy intersection with public transport,traffic, people,residential building blocks, shops.","ostation":2}},</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11521,7 +11523,7 @@
       </c>
       <c r="U134" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.561605,19.088294]},"properties":{"id":"BUD22","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Újpest-Városközpont) moderate busy street with a park, residential buildings, mall, shops, traffic.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.088294,47.561605]},"properties":{"id":"BUD22","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Újpest-Városközpont) moderate busy street with a park, residential buildings, mall, shops, traffic.","ostation":2}},</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11587,7 +11589,7 @@
       </c>
       <c r="U135" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.478829,19.089486]},"properties":{"id":"BUD23","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Nagyvárad tér) busy intersection with traffic, people, school,hospitals, close to green park.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.089486,47.478829]},"properties":{"id":"BUD23","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Nagyvárad tér) busy intersection with traffic, people, school,hospitals, close to green park.","ostation":2}},</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11653,7 +11655,7 @@
       </c>
       <c r="U136" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.480592,19.094298]},"properties":{"id":"BUD24","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to Nagyvárad tér), moderate busy street with traffic,people, residential buildings, schools, hospital, close to green park.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.094298,47.480592]},"properties":{"id":"BUD24","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to Nagyvárad tér), moderate busy street with traffic,people, residential buildings, schools, hospital, close to green park.","ostation":2}},</v>
       </c>
     </row>
     <row r="137" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11719,7 +11721,7 @@
       </c>
       <c r="U137" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.521894,19.094559]},"properties":{"id":"BUD25","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to highway M3 and city park). moderate busy street with people. residential building blocks. traffic.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.094559,47.521894]},"properties":{"id":"BUD25","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to highway M3 and city park). moderate busy street with people. residential building blocks. traffic.","ostation":2}},</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11785,7 +11787,7 @@
       </c>
       <c r="U138" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.466128,19.016553]},"properties":{"id":"BUD26","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1,"trafic":1,"info":"(Budaörsi út. near Kelenföld pu) busy road with people. traffic. train and bus station close. residential buildings and offices.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.016553,47.466128]},"properties":{"id":"BUD26","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1,"trafic":1,"info":"(Budaörsi út. near Kelenföld pu) busy road with people. traffic. train and bus station close. residential buildings and offices.","ostation":2}},</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11851,7 +11853,7 @@
       </c>
       <c r="U139" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.467142,19.019297]},"properties":{"id":"BUD27","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to Budaörsi út). moderate busy street with people. traffic. residential buildings.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.019297,47.467142]},"properties":{"id":"BUD27","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to Budaörsi út). moderate busy street with people. traffic. residential buildings.","ostation":2}},</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11917,7 +11919,7 @@
       </c>
       <c r="U140" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.503904,19.136842]},"properties":{"id":"BUD28","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Örs vezér tér) busy intersection with people. traffic. every kind of public transport. shopping mall. close to hospital.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.136842,47.503904]},"properties":{"id":"BUD28","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Örs vezér tér) busy intersection with people. traffic. every kind of public transport. shopping mall. close to hospital.","ostation":2}},</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -11983,7 +11985,7 @@
       </c>
       <c r="U141" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.505597,19.133894]},"properties":{"id":"BUD29","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to Örs vezér tér).moderate busy street with people. traffic. hospital.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.133894,47.505597]},"properties":{"id":"BUD29","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to Örs vezér tér).moderate busy street with people. traffic. hospital.","ostation":2}},</v>
       </c>
     </row>
     <row r="142" spans="1:21" ht="14" customHeight="1" thickBot="1">
@@ -12049,7 +12051,7 @@
       </c>
       <c r="U142" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[47.476853,19.100679]},"properties":{"id":"BUD30","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":0,"info":"(Népliget). moderate or no traffic. green park. people. close to bus station and busy road.","ostation":2}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.100679,47.476853]},"properties":{"id":"BUD30","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":0,"info":"(Népliget). moderate or no traffic. green park. people. close to bus station and busy road.","ostation":2}},</v>
       </c>
     </row>
     <row r="143" spans="1:21" ht="14" customHeight="1">
@@ -12115,7 +12117,7 @@
       </c>
       <c r="U143" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.117603,-1.634367]},"properties":{"id":"RNS1","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Science University campus","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.634367,48.117603]},"properties":{"id":"RNS1","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Science University campus","ostation":0}},</v>
       </c>
     </row>
     <row r="144" spans="1:21" ht="14" customHeight="1">
@@ -12181,7 +12183,7 @@
       </c>
       <c r="U144" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.085576,-1.674578]},"properties":{"id":"RNS2","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road (south entrance)","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.674578,48.085576]},"properties":{"id":"RNS2","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road (south entrance)","ostation":0}},</v>
       </c>
     </row>
     <row r="145" spans="1:21" ht="14" customHeight="1">
@@ -12247,7 +12249,7 @@
       </c>
       <c r="U145" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.105869,-1.650626]},"properties":{"id":"RNS3","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"entrance new district","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.650626,48.105869]},"properties":{"id":"RNS3","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"entrance new district","ostation":0}},</v>
       </c>
     </row>
     <row r="146" spans="1:21" ht="14" customHeight="1">
@@ -12313,7 +12315,7 @@
       </c>
       <c r="U146" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.097092,-1.690494]},"properties":{"id":"RNS4","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road. Primary school nearby","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.690494,48.097092]},"properties":{"id":"RNS4","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road. Primary school nearby","ostation":0}},</v>
       </c>
     </row>
     <row r="147" spans="1:21" ht="14" customHeight="1">
@@ -12379,7 +12381,7 @@
       </c>
       <c r="U147" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.137719,-1.645417]},"properties":{"id":"RNS5","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Biggest park, far from trafic","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.645417,48.137719]},"properties":{"id":"RNS5","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Biggest park, far from trafic","ostation":0}},</v>
       </c>
     </row>
     <row r="148" spans="1:21" ht="14" customHeight="1">
@@ -12445,7 +12447,7 @@
       </c>
       <c r="U148" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.136641,-1.668484]},"properties":{"id":"RNS6","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Bellangerais Community center, Primary J. Ferry scool and Sibiu park nearby","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.668484,48.136641]},"properties":{"id":"RNS6","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Bellangerais Community center, Primary J. Ferry scool and Sibiu park nearby","ostation":0}},</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="14" customHeight="1">
@@ -12511,7 +12513,7 @@
       </c>
       <c r="U149" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.142029,-1.657471]},"properties":{"id":"RNS7","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"North ring road","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.657471,48.142029]},"properties":{"id":"RNS7","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"North ring road","ostation":0}},</v>
       </c>
     </row>
     <row r="150" spans="1:21" ht="14" customHeight="1">
@@ -12577,7 +12579,7 @@
       </c>
       <c r="U150" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.105998,-1.732734]},"properties":{"id":"RNS8","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Commercial area. West exit / entrance","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.732734,48.105998]},"properties":{"id":"RNS8","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Commercial area. West exit / entrance","ostation":0}},</v>
       </c>
     </row>
     <row r="151" spans="1:21" ht="14" customHeight="1">
@@ -12643,7 +12645,7 @@
       </c>
       <c r="U151" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.097297,-1.642059]},"properties":{"id":"RNS9","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Landry school and park","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.642059,48.097297]},"properties":{"id":"RNS9","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Landry school and park","ostation":0}},</v>
       </c>
     </row>
     <row r="152" spans="1:21" ht="14" customHeight="1">
@@ -12709,7 +12711,7 @@
       </c>
       <c r="U152" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.123139,-1.660156]},"properties":{"id":"RNS10","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Assomption school and Maurepas park","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.660156,48.123139]},"properties":{"id":"RNS10","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Assomption school and Maurepas park","ostation":0}},</v>
       </c>
     </row>
     <row r="153" spans="1:21" ht="14" customHeight="1">
@@ -12775,7 +12777,7 @@
       </c>
       <c r="U153" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.083702,-1.696519]},"properties":{"id":"RNS11","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Cloteaux primary School, Brequigny youth house","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.696519,48.083702]},"properties":{"id":"RNS11","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Cloteaux primary School, Brequigny youth house","ostation":0}},</v>
       </c>
     </row>
     <row r="154" spans="1:21" ht="14" customHeight="1">
@@ -12841,7 +12843,7 @@
       </c>
       <c r="U154" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.102611,-1.661076]},"properties":{"id":"RNS12","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road, St Yves Hospital, St Michel School","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.661076,48.102611]},"properties":{"id":"RNS12","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road, St Yves Hospital, St Michel School","ostation":0}},</v>
       </c>
     </row>
     <row r="155" spans="1:21" ht="14" customHeight="1">
@@ -12907,7 +12909,7 @@
       </c>
       <c r="U155" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.084157,-1.682314]},"properties":{"id":"RNS13","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Chalais middle school, Alma shopping center","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.682314,48.084157]},"properties":{"id":"RNS13","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Chalais middle school, Alma shopping center","ostation":0}},</v>
       </c>
     </row>
     <row r="156" spans="1:21" ht="14" customHeight="1">
@@ -12973,7 +12975,7 @@
       </c>
       <c r="U156" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.117524,-1.70441]},"properties":{"id":"RNS14","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Health High School, University","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.70441,48.117524]},"properties":{"id":"RNS14","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Health High School, University","ostation":0}},</v>
       </c>
     </row>
     <row r="157" spans="1:21" ht="14" customHeight="1">
@@ -13039,7 +13041,7 @@
       </c>
       <c r="U157" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.126054,-1.692345]},"properties":{"id":"RNS15","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road, Basch secondary school, DMV","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.692345,48.126054]},"properties":{"id":"RNS15","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road, Basch secondary school, DMV","ostation":0}},</v>
       </c>
     </row>
     <row r="158" spans="1:21" ht="14" customHeight="1">
@@ -13105,7 +13107,7 @@
       </c>
       <c r="U158" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.084437,-1.657605]},"properties":{"id":"RNS16","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"residential area (south), not very far from south ring","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.657605,48.084437]},"properties":{"id":"RNS16","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"residential area (south), not very far from south ring","ostation":0}},</v>
       </c>
     </row>
     <row r="159" spans="1:21" ht="14" customHeight="1">
@@ -13171,7 +13173,7 @@
       </c>
       <c r="U159" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.095247,-1.671295]},"properties":{"id":"RNS17","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"residential area (center)","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.671295,48.095247]},"properties":{"id":"RNS17","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"residential area (center)","ostation":0}},</v>
       </c>
     </row>
     <row r="160" spans="1:21" ht="14" customHeight="1">
@@ -13237,7 +13239,7 @@
       </c>
       <c r="U160" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.089482,-1.644913]},"properties":{"id":"RNS18","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road, Hautes Ourmes park","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.644913,48.089482]},"properties":{"id":"RNS18","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road, Hautes Ourmes park","ostation":0}},</v>
       </c>
     </row>
     <row r="161" spans="1:21" ht="14" customHeight="1">
@@ -13303,7 +13305,7 @@
       </c>
       <c r="U161" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.104218,-1.70464]},"properties":{"id":"RNS19","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"residential area (west), Cleunay gardens nearby","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.70464,48.104218]},"properties":{"id":"RNS19","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"residential area (west), Cleunay gardens nearby","ostation":0}},</v>
       </c>
     </row>
     <row r="162" spans="1:21" ht="14" customHeight="1">
@@ -13369,7 +13371,7 @@
       </c>
       <c r="U162" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.104623,-1.673741]},"properties":{"id":"RNS20","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Rennes Environment House, railway station, Brittany museum","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.673741,48.104623]},"properties":{"id":"RNS20","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Rennes Environment House, railway station, Brittany museum","ostation":0}},</v>
       </c>
     </row>
     <row r="163" spans="1:21" ht="14" customHeight="1">
@@ -13435,7 +13437,7 @@
       </c>
       <c r="U163" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.109638,-1.689749]},"properties":{"id":"RNS21","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"New rambla (outside sport, coffees)","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.689749,48.109638]},"properties":{"id":"RNS21","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"New rambla (outside sport, coffees)","ostation":0}},</v>
       </c>
     </row>
     <row r="164" spans="1:21" ht="14" customHeight="1">
@@ -13501,7 +13503,7 @@
       </c>
       <c r="U164" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.109301,-1.684395]},"properties":{"id":"RNS22","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy center place","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.684395,48.109301]},"properties":{"id":"RNS22","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy center place","ostation":0}},</v>
       </c>
     </row>
     <row r="165" spans="1:21" ht="14" customHeight="1">
@@ -13567,7 +13569,7 @@
       </c>
       <c r="U165" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.101642,-1.684454]},"properties":{"id":"RNS23","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy center road. Colombier Primary school","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.684454,48.101642]},"properties":{"id":"RNS23","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy center road. Colombier Primary school","ostation":0}},</v>
       </c>
     </row>
     <row r="166" spans="1:21" ht="14" customHeight="1">
@@ -13633,7 +13635,7 @@
       </c>
       <c r="U166" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.1219,-1.676145]},"properties":{"id":"RNS24","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Central natural site, far from trafic","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.676145,48.1219]},"properties":{"id":"RNS24","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Central natural site, far from trafic","ostation":0}},</v>
       </c>
     </row>
     <row r="167" spans="1:21" ht="14" customHeight="1">
@@ -13699,7 +13701,7 @@
       </c>
       <c r="U167" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.110331,-1.656186]},"properties":{"id":"RNS25","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road, Hospital nearby","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.656186,48.110331]},"properties":{"id":"RNS25","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road, Hospital nearby","ostation":0}},</v>
       </c>
     </row>
     <row r="168" spans="1:21" ht="14" customHeight="1">
@@ -13765,7 +13767,7 @@
       </c>
       <c r="U168" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.122987,-1.71913]},"properties":{"id":"RNS26","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"west ring, Villejean park, Rosa Parks middle school","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.71913,48.122987]},"properties":{"id":"RNS26","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"west ring, Villejean park, Rosa Parks middle school","ostation":0}},</v>
       </c>
     </row>
     <row r="169" spans="1:21" ht="14" customHeight="1">
@@ -13831,7 +13833,7 @@
       </c>
       <c r="U169" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.084573,-1.640847]},"properties":{"id":"RNS27","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"South ring, sport place","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.640847,48.084573]},"properties":{"id":"RNS27","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"South ring, sport place","ostation":0}},</v>
       </c>
     </row>
     <row r="170" spans="1:21" ht="14" customHeight="1">
@@ -13897,7 +13899,7 @@
       </c>
       <c r="U170" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.121098,-1.682582]},"properties":{"id":"RNS28","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road, education school","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.682582,48.121098]},"properties":{"id":"RNS28","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road, education school","ostation":0}},</v>
       </c>
     </row>
     <row r="171" spans="1:21" ht="14" customHeight="1">
@@ -13963,7 +13965,7 @@
       </c>
       <c r="U171" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.096283,-1.731548]},"properties":{"id":"RNS29","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Organic market gardener","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.731548,48.096283]},"properties":{"id":"RNS29","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Organic market gardener","ostation":0}},</v>
       </c>
     </row>
     <row r="172" spans="1:21" ht="14" customHeight="1">
@@ -14029,7 +14031,7 @@
       </c>
       <c r="U172" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[48.115039,-1.672583]},"properties":{"id":"RNS30","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Jean Zay primary school, Thabor Park","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.672583,48.115039]},"properties":{"id":"RNS30","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Jean Zay primary school, Thabor Park","ostation":0}},</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Workbook1_170920.xlsx
+++ b/doc/Workbook1_170920.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="0" windowWidth="25020" windowHeight="7940" tabRatio="500"/>
+    <workbookView xWindow="1380" yWindow="6980" windowWidth="25020" windowHeight="7940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1797,12 +1797,6 @@
     <t>Science University campus</t>
   </si>
   <si>
-    <t>-1.674578</t>
-  </si>
-  <si>
-    <t>48.085576</t>
-  </si>
-  <si>
     <t>RNS2</t>
   </si>
   <si>
@@ -2176,13 +2170,19 @@
   </si>
   <si>
     <t>","ostation":</t>
+  </si>
+  <si>
+    <t>-1.673843</t>
+  </si>
+  <si>
+    <t>48.093201</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2238,6 +2238,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2308,7 +2313,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2356,6 +2361,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2705,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U172"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -2780,34 +2788,34 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U2" t="str">
         <f>K2&amp;A2&amp;","&amp;B2&amp;L2&amp;C2&amp;M2&amp;E2&amp;N2&amp;D2&amp;O2&amp;I2&amp;P2&amp;F2&amp;Q2&amp;G2&amp;R2&amp;H2&amp;S2&amp;J2&amp;T2</f>
@@ -2846,34 +2854,34 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U3" t="str">
         <f t="shared" ref="U3:U66" si="0">K3&amp;A3&amp;","&amp;B3&amp;L3&amp;C3&amp;M3&amp;E3&amp;N3&amp;D3&amp;O3&amp;I3&amp;P3&amp;F3&amp;Q3&amp;G3&amp;R3&amp;H3&amp;S3&amp;J3&amp;T3</f>
@@ -2912,34 +2920,34 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" si="0"/>
@@ -2978,34 +2986,34 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" si="0"/>
@@ -3044,34 +3052,34 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="0"/>
@@ -3110,34 +3118,34 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="0"/>
@@ -3176,34 +3184,34 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="0"/>
@@ -3242,34 +3250,34 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T9" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="0"/>
@@ -3308,34 +3316,34 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N10" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q10" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="0"/>
@@ -3374,34 +3382,34 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="0"/>
@@ -3440,34 +3448,34 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L12" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M12" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N12" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O12" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P12" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q12" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R12" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S12" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T12" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="0"/>
@@ -3506,34 +3514,34 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O13" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P13" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q13" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T13" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="0"/>
@@ -3572,34 +3580,34 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M14" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N14" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O14" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q14" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S14" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T14" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="0"/>
@@ -3638,34 +3646,34 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M15" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N15" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O15" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P15" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q15" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R15" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S15" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T15" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="0"/>
@@ -3704,34 +3712,34 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L16" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M16" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N16" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O16" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P16" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q16" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R16" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S16" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T16" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="0"/>
@@ -3770,34 +3778,34 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L17" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M17" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N17" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O17" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q17" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R17" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S17" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T17" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="0"/>
@@ -3836,34 +3844,34 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L18" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M18" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N18" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O18" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P18" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q18" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R18" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S18" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T18" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="0"/>
@@ -3902,34 +3910,34 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L19" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M19" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N19" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O19" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P19" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q19" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R19" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S19" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T19" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="0"/>
@@ -3968,34 +3976,34 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L20" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M20" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N20" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O20" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P20" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q20" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R20" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S20" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T20" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="0"/>
@@ -4034,34 +4042,34 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L21" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M21" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N21" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O21" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P21" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q21" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R21" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S21" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T21" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="0"/>
@@ -4100,34 +4108,34 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L22" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M22" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N22" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O22" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P22" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q22" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R22" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S22" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T22" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="0"/>
@@ -4166,34 +4174,34 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L23" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M23" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N23" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O23" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P23" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q23" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R23" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S23" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T23" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="0"/>
@@ -4232,34 +4240,34 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L24" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M24" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N24" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O24" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P24" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q24" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R24" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S24" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T24" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="0"/>
@@ -4298,34 +4306,34 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L25" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M25" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N25" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O25" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P25" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q25" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R25" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S25" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T25" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="0"/>
@@ -4364,34 +4372,34 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L26" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M26" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N26" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O26" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P26" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q26" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R26" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S26" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T26" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="0"/>
@@ -4430,34 +4438,34 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L27" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M27" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N27" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O27" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P27" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q27" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R27" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S27" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T27" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="0"/>
@@ -4496,34 +4504,34 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M28" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N28" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O28" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P28" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q28" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R28" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S28" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T28" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="0"/>
@@ -4562,34 +4570,34 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L29" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M29" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N29" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O29" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P29" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q29" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R29" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S29" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T29" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="0"/>
@@ -4628,34 +4636,34 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L30" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M30" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N30" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O30" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P30" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q30" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R30" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S30" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T30" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="0"/>
@@ -4694,34 +4702,34 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L31" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M31" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N31" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O31" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P31" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q31" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R31" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S31" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T31" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="0"/>
@@ -4760,34 +4768,34 @@
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L32" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M32" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N32" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O32" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P32" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q32" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R32" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S32" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T32" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="0"/>
@@ -4826,34 +4834,34 @@
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L33" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M33" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N33" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O33" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P33" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q33" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R33" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S33" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T33" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="0"/>
@@ -4892,34 +4900,34 @@
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L34" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M34" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N34" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O34" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P34" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q34" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R34" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S34" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T34" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" si="0"/>
@@ -4958,34 +4966,34 @@
         <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L35" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M35" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N35" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O35" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P35" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q35" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R35" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S35" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T35" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="0"/>
@@ -5024,34 +5032,34 @@
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L36" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M36" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N36" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P36" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q36" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R36" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S36" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T36" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="0"/>
@@ -5090,34 +5098,34 @@
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L37" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M37" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N37" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O37" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P37" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q37" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R37" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S37" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T37" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="0"/>
@@ -5156,34 +5164,34 @@
         <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L38" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M38" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N38" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O38" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P38" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q38" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R38" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S38" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T38" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="0"/>
@@ -5222,34 +5230,34 @@
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L39" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M39" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N39" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O39" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P39" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q39" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R39" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S39" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T39" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" si="0"/>
@@ -5288,34 +5296,34 @@
         <v>2</v>
       </c>
       <c r="K40" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L40" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M40" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N40" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O40" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P40" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q40" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R40" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S40" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T40" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" si="0"/>
@@ -5354,34 +5362,34 @@
         <v>2</v>
       </c>
       <c r="K41" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L41" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M41" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N41" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O41" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P41" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q41" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R41" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S41" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T41" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="0"/>
@@ -5420,34 +5428,34 @@
         <v>2</v>
       </c>
       <c r="K42" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L42" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M42" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N42" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O42" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P42" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q42" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R42" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S42" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T42" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" si="0"/>
@@ -5486,34 +5494,34 @@
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L43" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M43" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N43" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O43" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P43" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q43" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R43" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S43" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T43" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="0"/>
@@ -5552,34 +5560,34 @@
         <v>2</v>
       </c>
       <c r="K44" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L44" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M44" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N44" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O44" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P44" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q44" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R44" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S44" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T44" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" si="0"/>
@@ -5618,34 +5626,34 @@
         <v>2</v>
       </c>
       <c r="K45" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L45" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M45" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N45" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O45" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q45" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R45" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="0"/>
@@ -5684,34 +5692,34 @@
         <v>2</v>
       </c>
       <c r="K46" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L46" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M46" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N46" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O46" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P46" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q46" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R46" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S46" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T46" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U46" t="str">
         <f t="shared" si="0"/>
@@ -5750,34 +5758,34 @@
         <v>2</v>
       </c>
       <c r="K47" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L47" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M47" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N47" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O47" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P47" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q47" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R47" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S47" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T47" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="0"/>
@@ -5816,34 +5824,34 @@
         <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L48" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M48" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N48" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O48" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P48" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q48" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R48" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S48" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T48" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U48" t="str">
         <f t="shared" si="0"/>
@@ -5882,34 +5890,34 @@
         <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L49" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M49" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N49" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O49" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P49" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q49" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R49" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S49" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T49" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U49" t="str">
         <f t="shared" si="0"/>
@@ -5948,34 +5956,34 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L50" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M50" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N50" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O50" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P50" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q50" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R50" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S50" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T50" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U50" t="str">
         <f t="shared" si="0"/>
@@ -6014,34 +6022,34 @@
         <v>2</v>
       </c>
       <c r="K51" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L51" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M51" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N51" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O51" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P51" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q51" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R51" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S51" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T51" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U51" t="str">
         <f t="shared" si="0"/>
@@ -6080,34 +6088,34 @@
         <v>2</v>
       </c>
       <c r="K52" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L52" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M52" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N52" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O52" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P52" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q52" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R52" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S52" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T52" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U52" t="str">
         <f t="shared" si="0"/>
@@ -6146,34 +6154,34 @@
         <v>2</v>
       </c>
       <c r="K53" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M53" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N53" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O53" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P53" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q53" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R53" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S53" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T53" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U53" t="str">
         <f t="shared" si="0"/>
@@ -6212,34 +6220,34 @@
         <v>2</v>
       </c>
       <c r="K54" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L54" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M54" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N54" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O54" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P54" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q54" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R54" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S54" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T54" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U54" t="str">
         <f t="shared" si="0"/>
@@ -6278,34 +6286,34 @@
         <v>2</v>
       </c>
       <c r="K55" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L55" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M55" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N55" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O55" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P55" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q55" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R55" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S55" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T55" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U55" t="str">
         <f t="shared" si="0"/>
@@ -6344,34 +6352,34 @@
         <v>2</v>
       </c>
       <c r="K56" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L56" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M56" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N56" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O56" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P56" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q56" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R56" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S56" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T56" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U56" t="str">
         <f t="shared" si="0"/>
@@ -6410,34 +6418,34 @@
         <v>2</v>
       </c>
       <c r="K57" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L57" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M57" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N57" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O57" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P57" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q57" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R57" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S57" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T57" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U57" t="str">
         <f t="shared" si="0"/>
@@ -6476,34 +6484,34 @@
         <v>2</v>
       </c>
       <c r="K58" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L58" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M58" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N58" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O58" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P58" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q58" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R58" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S58" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T58" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U58" t="str">
         <f t="shared" si="0"/>
@@ -6542,34 +6550,34 @@
         <v>2</v>
       </c>
       <c r="K59" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L59" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M59" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N59" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O59" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P59" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q59" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R59" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S59" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T59" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U59" t="str">
         <f t="shared" si="0"/>
@@ -6608,34 +6616,34 @@
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L60" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M60" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N60" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O60" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P60" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q60" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R60" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S60" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T60" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U60" t="str">
         <f t="shared" si="0"/>
@@ -6674,34 +6682,34 @@
         <v>2</v>
       </c>
       <c r="K61" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L61" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M61" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N61" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O61" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P61" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q61" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R61" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S61" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T61" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U61" t="str">
         <f t="shared" si="0"/>
@@ -6740,34 +6748,34 @@
         <v>2</v>
       </c>
       <c r="K62" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L62" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M62" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N62" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O62" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P62" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q62" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R62" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S62" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T62" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U62" t="str">
         <f t="shared" si="0"/>
@@ -6806,34 +6814,34 @@
         <v>2</v>
       </c>
       <c r="K63" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L63" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M63" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N63" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O63" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P63" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q63" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R63" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S63" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T63" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U63" t="str">
         <f t="shared" si="0"/>
@@ -6872,34 +6880,34 @@
         <v>2</v>
       </c>
       <c r="K64" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L64" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M64" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N64" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O64" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P64" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q64" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R64" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S64" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T64" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U64" t="str">
         <f t="shared" si="0"/>
@@ -6938,34 +6946,34 @@
         <v>2</v>
       </c>
       <c r="K65" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L65" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M65" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N65" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O65" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P65" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q65" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R65" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S65" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T65" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U65" t="str">
         <f t="shared" si="0"/>
@@ -7004,34 +7012,34 @@
         <v>2</v>
       </c>
       <c r="K66" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L66" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M66" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N66" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O66" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P66" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q66" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R66" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S66" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T66" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U66" t="str">
         <f t="shared" si="0"/>
@@ -7070,34 +7078,34 @@
         <v>2</v>
       </c>
       <c r="K67" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L67" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M67" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N67" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O67" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P67" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q67" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R67" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S67" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T67" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U67" t="str">
         <f t="shared" ref="U67:U130" si="1">K67&amp;A67&amp;","&amp;B67&amp;L67&amp;C67&amp;M67&amp;E67&amp;N67&amp;D67&amp;O67&amp;I67&amp;P67&amp;F67&amp;Q67&amp;G67&amp;R67&amp;H67&amp;S67&amp;J67&amp;T67</f>
@@ -7136,34 +7144,34 @@
         <v>2</v>
       </c>
       <c r="K68" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L68" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M68" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N68" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O68" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P68" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q68" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R68" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S68" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T68" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U68" t="str">
         <f t="shared" si="1"/>
@@ -7202,34 +7210,34 @@
         <v>2</v>
       </c>
       <c r="K69" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L69" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M69" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N69" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O69" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P69" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q69" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R69" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S69" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T69" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U69" t="str">
         <f t="shared" si="1"/>
@@ -7268,34 +7276,34 @@
         <v>2</v>
       </c>
       <c r="K70" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L70" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M70" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N70" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O70" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P70" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q70" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R70" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S70" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T70" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="1"/>
@@ -7334,34 +7342,34 @@
         <v>2</v>
       </c>
       <c r="K71" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L71" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M71" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N71" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O71" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P71" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q71" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R71" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S71" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T71" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U71" t="str">
         <f t="shared" si="1"/>
@@ -7400,34 +7408,34 @@
         <v>2</v>
       </c>
       <c r="K72" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L72" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M72" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N72" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O72" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P72" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q72" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R72" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S72" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T72" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="1"/>
@@ -7466,34 +7474,34 @@
         <v>2</v>
       </c>
       <c r="K73" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L73" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M73" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N73" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O73" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P73" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q73" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R73" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S73" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T73" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U73" t="str">
         <f t="shared" si="1"/>
@@ -7532,34 +7540,34 @@
         <v>2</v>
       </c>
       <c r="K74" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L74" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M74" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N74" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O74" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P74" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q74" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R74" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S74" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T74" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U74" t="str">
         <f t="shared" si="1"/>
@@ -7598,34 +7606,34 @@
         <v>2</v>
       </c>
       <c r="K75" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L75" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M75" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N75" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O75" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P75" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q75" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R75" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S75" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T75" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U75" t="str">
         <f t="shared" si="1"/>
@@ -7664,34 +7672,34 @@
         <v>2</v>
       </c>
       <c r="K76" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L76" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M76" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O76" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P76" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q76" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R76" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S76" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T76" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U76" t="str">
         <f t="shared" si="1"/>
@@ -7730,34 +7738,34 @@
         <v>2</v>
       </c>
       <c r="K77" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L77" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M77" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N77" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O77" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P77" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q77" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R77" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S77" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T77" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U77" t="str">
         <f t="shared" si="1"/>
@@ -7796,34 +7804,34 @@
         <v>2</v>
       </c>
       <c r="K78" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L78" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M78" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N78" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O78" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P78" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q78" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R78" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S78" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T78" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U78" t="str">
         <f t="shared" si="1"/>
@@ -7862,34 +7870,34 @@
         <v>2</v>
       </c>
       <c r="K79" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L79" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M79" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N79" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O79" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P79" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q79" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R79" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S79" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T79" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U79" t="str">
         <f t="shared" si="1"/>
@@ -7928,34 +7936,34 @@
         <v>2</v>
       </c>
       <c r="K80" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L80" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M80" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N80" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O80" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P80" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q80" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R80" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S80" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T80" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U80" t="str">
         <f t="shared" si="1"/>
@@ -7994,34 +8002,34 @@
         <v>2</v>
       </c>
       <c r="K81" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L81" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M81" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N81" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O81" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P81" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q81" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R81" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S81" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T81" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U81" t="str">
         <f t="shared" si="1"/>
@@ -8060,34 +8068,34 @@
         <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L82" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M82" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N82" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O82" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P82" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q82" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R82" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S82" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T82" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U82" t="str">
         <f t="shared" si="1"/>
@@ -8126,34 +8134,34 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L83" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M83" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N83" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O83" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P83" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q83" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R83" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S83" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T83" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U83" t="str">
         <f t="shared" si="1"/>
@@ -8192,34 +8200,34 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L84" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M84" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N84" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O84" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P84" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q84" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R84" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S84" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T84" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U84" t="str">
         <f t="shared" si="1"/>
@@ -8258,34 +8266,34 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L85" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M85" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N85" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O85" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P85" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q85" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R85" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S85" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T85" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U85" t="str">
         <f t="shared" si="1"/>
@@ -8324,34 +8332,34 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L86" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M86" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N86" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O86" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P86" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q86" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R86" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S86" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T86" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U86" t="str">
         <f t="shared" si="1"/>
@@ -8390,34 +8398,34 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L87" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M87" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N87" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O87" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P87" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q87" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R87" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S87" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T87" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U87" t="str">
         <f t="shared" si="1"/>
@@ -8456,34 +8464,34 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L88" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M88" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N88" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O88" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P88" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q88" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R88" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S88" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T88" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U88" t="str">
         <f t="shared" si="1"/>
@@ -8522,34 +8530,34 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L89" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M89" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N89" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O89" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P89" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q89" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R89" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S89" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T89" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U89" t="str">
         <f t="shared" si="1"/>
@@ -8588,34 +8596,34 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L90" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M90" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N90" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O90" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P90" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q90" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R90" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S90" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T90" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U90" t="str">
         <f t="shared" si="1"/>
@@ -8654,34 +8662,34 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L91" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M91" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N91" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O91" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P91" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q91" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R91" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S91" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T91" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U91" t="str">
         <f t="shared" si="1"/>
@@ -8720,34 +8728,34 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L92" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M92" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N92" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O92" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P92" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q92" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R92" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S92" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T92" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U92" t="str">
         <f t="shared" si="1"/>
@@ -8786,34 +8794,34 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L93" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M93" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N93" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O93" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P93" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q93" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R93" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S93" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T93" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U93" t="str">
         <f t="shared" si="1"/>
@@ -8852,34 +8860,34 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L94" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M94" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N94" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O94" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P94" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q94" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R94" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S94" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T94" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U94" t="str">
         <f t="shared" si="1"/>
@@ -8918,34 +8926,34 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L95" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M95" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N95" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O95" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P95" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q95" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R95" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S95" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T95" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U95" t="str">
         <f t="shared" si="1"/>
@@ -8984,34 +8992,34 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L96" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M96" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N96" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O96" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P96" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q96" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R96" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S96" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T96" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U96" t="str">
         <f t="shared" si="1"/>
@@ -9050,34 +9058,34 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L97" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M97" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N97" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O97" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P97" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q97" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R97" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S97" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T97" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U97" t="str">
         <f t="shared" si="1"/>
@@ -9116,34 +9124,34 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L98" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M98" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N98" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O98" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P98" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q98" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R98" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S98" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T98" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U98" t="str">
         <f t="shared" si="1"/>
@@ -9182,34 +9190,34 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L99" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M99" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N99" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O99" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P99" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q99" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R99" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S99" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T99" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U99" t="str">
         <f t="shared" si="1"/>
@@ -9248,34 +9256,34 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L100" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M100" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N100" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O100" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P100" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q100" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R100" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S100" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T100" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U100" t="str">
         <f t="shared" si="1"/>
@@ -9314,34 +9322,34 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L101" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M101" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N101" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O101" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P101" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q101" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R101" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S101" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T101" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U101" t="str">
         <f t="shared" si="1"/>
@@ -9380,34 +9388,34 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L102" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M102" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N102" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O102" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P102" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q102" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R102" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S102" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T102" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U102" t="str">
         <f t="shared" si="1"/>
@@ -9446,34 +9454,34 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L103" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M103" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N103" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O103" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P103" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q103" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R103" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S103" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T103" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U103" t="str">
         <f t="shared" si="1"/>
@@ -9512,34 +9520,34 @@
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L104" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M104" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N104" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O104" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P104" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q104" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R104" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S104" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T104" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U104" t="str">
         <f t="shared" si="1"/>
@@ -9578,34 +9586,34 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L105" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M105" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N105" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O105" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P105" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q105" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R105" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S105" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T105" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U105" t="str">
         <f t="shared" si="1"/>
@@ -9644,34 +9652,34 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L106" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M106" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N106" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O106" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P106" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q106" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R106" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S106" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T106" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U106" t="str">
         <f t="shared" si="1"/>
@@ -9710,34 +9718,34 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L107" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M107" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N107" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O107" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P107" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q107" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R107" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S107" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T107" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U107" t="str">
         <f t="shared" si="1"/>
@@ -9776,34 +9784,34 @@
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L108" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M108" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N108" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O108" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P108" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q108" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R108" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S108" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T108" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U108" t="str">
         <f t="shared" si="1"/>
@@ -9842,34 +9850,34 @@
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L109" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M109" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N109" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O109" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P109" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q109" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R109" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S109" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T109" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U109" t="str">
         <f t="shared" si="1"/>
@@ -9908,34 +9916,34 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L110" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M110" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N110" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O110" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P110" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q110" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R110" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S110" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T110" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U110" t="str">
         <f t="shared" si="1"/>
@@ -9974,34 +9982,34 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L111" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M111" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N111" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O111" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P111" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q111" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R111" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S111" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T111" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U111" t="str">
         <f t="shared" si="1"/>
@@ -10040,34 +10048,34 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L112" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M112" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N112" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O112" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P112" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q112" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R112" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S112" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T112" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U112" t="str">
         <f t="shared" si="1"/>
@@ -10106,34 +10114,34 @@
         <v>2</v>
       </c>
       <c r="K113" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L113" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M113" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N113" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O113" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P113" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q113" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R113" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S113" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T113" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U113" t="str">
         <f t="shared" si="1"/>
@@ -10172,34 +10180,34 @@
         <v>2</v>
       </c>
       <c r="K114" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L114" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M114" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N114" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O114" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P114" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q114" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R114" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S114" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T114" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U114" t="str">
         <f t="shared" si="1"/>
@@ -10238,34 +10246,34 @@
         <v>2</v>
       </c>
       <c r="K115" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L115" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M115" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N115" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O115" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P115" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q115" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R115" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S115" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T115" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U115" t="str">
         <f t="shared" si="1"/>
@@ -10304,34 +10312,34 @@
         <v>2</v>
       </c>
       <c r="K116" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L116" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M116" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N116" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O116" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P116" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q116" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R116" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S116" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T116" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U116" t="str">
         <f t="shared" si="1"/>
@@ -10370,34 +10378,34 @@
         <v>2</v>
       </c>
       <c r="K117" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L117" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M117" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N117" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P117" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q117" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R117" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S117" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T117" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U117" t="str">
         <f t="shared" si="1"/>
@@ -10436,34 +10444,34 @@
         <v>2</v>
       </c>
       <c r="K118" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L118" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M118" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N118" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O118" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P118" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q118" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R118" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S118" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T118" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U118" t="str">
         <f t="shared" si="1"/>
@@ -10502,34 +10510,34 @@
         <v>2</v>
       </c>
       <c r="K119" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L119" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M119" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N119" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O119" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P119" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q119" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R119" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S119" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T119" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U119" t="str">
         <f t="shared" si="1"/>
@@ -10568,34 +10576,34 @@
         <v>2</v>
       </c>
       <c r="K120" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L120" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M120" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N120" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O120" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P120" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q120" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R120" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S120" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T120" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U120" t="str">
         <f t="shared" si="1"/>
@@ -10634,34 +10642,34 @@
         <v>2</v>
       </c>
       <c r="K121" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L121" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M121" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N121" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O121" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P121" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q121" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R121" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S121" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T121" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U121" t="str">
         <f t="shared" si="1"/>
@@ -10700,34 +10708,34 @@
         <v>2</v>
       </c>
       <c r="K122" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L122" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M122" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N122" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O122" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P122" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q122" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R122" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S122" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T122" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U122" t="str">
         <f t="shared" si="1"/>
@@ -10766,34 +10774,34 @@
         <v>2</v>
       </c>
       <c r="K123" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L123" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M123" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N123" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O123" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P123" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q123" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R123" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S123" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T123" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U123" t="str">
         <f t="shared" si="1"/>
@@ -10832,34 +10840,34 @@
         <v>2</v>
       </c>
       <c r="K124" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L124" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M124" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N124" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O124" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P124" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q124" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R124" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S124" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T124" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U124" t="str">
         <f t="shared" si="1"/>
@@ -10898,34 +10906,34 @@
         <v>2</v>
       </c>
       <c r="K125" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L125" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M125" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N125" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O125" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P125" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q125" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R125" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S125" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T125" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U125" t="str">
         <f t="shared" si="1"/>
@@ -10964,34 +10972,34 @@
         <v>2</v>
       </c>
       <c r="K126" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L126" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M126" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N126" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O126" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P126" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q126" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R126" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S126" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T126" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U126" t="str">
         <f t="shared" si="1"/>
@@ -11030,34 +11038,34 @@
         <v>2</v>
       </c>
       <c r="K127" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L127" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M127" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N127" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O127" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P127" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q127" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R127" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S127" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T127" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U127" t="str">
         <f t="shared" si="1"/>
@@ -11096,34 +11104,34 @@
         <v>2</v>
       </c>
       <c r="K128" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L128" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M128" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N128" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O128" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P128" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q128" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R128" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S128" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T128" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U128" t="str">
         <f t="shared" si="1"/>
@@ -11162,34 +11170,34 @@
         <v>2</v>
       </c>
       <c r="K129" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L129" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M129" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N129" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O129" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P129" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q129" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R129" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S129" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T129" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U129" t="str">
         <f t="shared" si="1"/>
@@ -11228,34 +11236,34 @@
         <v>2</v>
       </c>
       <c r="K130" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L130" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M130" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N130" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O130" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P130" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q130" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R130" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S130" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T130" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U130" t="str">
         <f t="shared" si="1"/>
@@ -11294,34 +11302,34 @@
         <v>2</v>
       </c>
       <c r="K131" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L131" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M131" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N131" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O131" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P131" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q131" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R131" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S131" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T131" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U131" t="str">
         <f t="shared" ref="U131:U172" si="2">K131&amp;A131&amp;","&amp;B131&amp;L131&amp;C131&amp;M131&amp;E131&amp;N131&amp;D131&amp;O131&amp;I131&amp;P131&amp;F131&amp;Q131&amp;G131&amp;R131&amp;H131&amp;S131&amp;J131&amp;T131</f>
@@ -11360,34 +11368,34 @@
         <v>2</v>
       </c>
       <c r="K132" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L132" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M132" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N132" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O132" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P132" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q132" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R132" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S132" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T132" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U132" t="str">
         <f t="shared" si="2"/>
@@ -11426,34 +11434,34 @@
         <v>2</v>
       </c>
       <c r="K133" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L133" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M133" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N133" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O133" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P133" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q133" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R133" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S133" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T133" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U133" t="str">
         <f t="shared" si="2"/>
@@ -11492,34 +11500,34 @@
         <v>2</v>
       </c>
       <c r="K134" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L134" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M134" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N134" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O134" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P134" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q134" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R134" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S134" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T134" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U134" t="str">
         <f t="shared" si="2"/>
@@ -11558,34 +11566,34 @@
         <v>2</v>
       </c>
       <c r="K135" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L135" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M135" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N135" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O135" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P135" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q135" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R135" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S135" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T135" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U135" t="str">
         <f t="shared" si="2"/>
@@ -11624,34 +11632,34 @@
         <v>2</v>
       </c>
       <c r="K136" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L136" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M136" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N136" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O136" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P136" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q136" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R136" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S136" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T136" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U136" t="str">
         <f t="shared" si="2"/>
@@ -11690,34 +11698,34 @@
         <v>2</v>
       </c>
       <c r="K137" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L137" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M137" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N137" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O137" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P137" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q137" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R137" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S137" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T137" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U137" t="str">
         <f t="shared" si="2"/>
@@ -11756,34 +11764,34 @@
         <v>2</v>
       </c>
       <c r="K138" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L138" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M138" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N138" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O138" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P138" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q138" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R138" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S138" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T138" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U138" t="str">
         <f t="shared" si="2"/>
@@ -11822,34 +11830,34 @@
         <v>2</v>
       </c>
       <c r="K139" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L139" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M139" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N139" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O139" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P139" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q139" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R139" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S139" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T139" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U139" t="str">
         <f t="shared" si="2"/>
@@ -11888,34 +11896,34 @@
         <v>2</v>
       </c>
       <c r="K140" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L140" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M140" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N140" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O140" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P140" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q140" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R140" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S140" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T140" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U140" t="str">
         <f t="shared" si="2"/>
@@ -11954,34 +11962,34 @@
         <v>2</v>
       </c>
       <c r="K141" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L141" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M141" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N141" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O141" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P141" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q141" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R141" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S141" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T141" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U141" t="str">
         <f t="shared" si="2"/>
@@ -12020,41 +12028,41 @@
         <v>2</v>
       </c>
       <c r="K142" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L142" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M142" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N142" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O142" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P142" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q142" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R142" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S142" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T142" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U142" t="str">
         <f t="shared" si="2"/>
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.100679,47.476853]},"properties":{"id":"BUD30","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":0,"info":"(Népliget). moderate or no traffic. green park. people. close to bus station and busy road.","ostation":2}},</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="14" customHeight="1">
+    <row r="143" spans="1:21" ht="14" customHeight="1" thickBot="1">
       <c r="A143" s="16" t="s">
         <v>586</v>
       </c>
@@ -12080,55 +12088,55 @@
         <v>591</v>
       </c>
       <c r="I143" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L143" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M143" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N143" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O143" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P143" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q143" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R143" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S143" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T143" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U143" t="str">
         <f t="shared" si="2"/>
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.634367,48.117603]},"properties":{"id":"RNS1","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":0,"info":"Science University campus","ostation":0}},</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="14" customHeight="1">
-      <c r="A144" s="16" t="s">
+    <row r="144" spans="1:21" ht="14" customHeight="1" thickBot="1">
+      <c r="A144" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="C144" t="s">
         <v>592</v>
-      </c>
-      <c r="B144" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="C144" t="s">
-        <v>594</v>
       </c>
       <c r="D144" t="s">
         <v>589</v>
@@ -12143,58 +12151,58 @@
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I144" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L144" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M144" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N144" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O144" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P144" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q144" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R144" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S144" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T144" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U144" t="str">
         <f t="shared" si="2"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.674578,48.085576]},"properties":{"id":"RNS2","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road (south entrance)","ostation":0}},</v>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[-1.673843,48.093201]},"properties":{"id":"RNS2","group":"MCE","city":"Rennes","color":"#def03f","height":2,"trafic":1,"info":"Busy road (south entrance)","ostation":0}},</v>
       </c>
     </row>
     <row r="145" spans="1:21" ht="14" customHeight="1">
       <c r="A145" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="C145" t="s">
         <v>596</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>597</v>
-      </c>
-      <c r="C145" t="s">
-        <v>598</v>
       </c>
       <c r="D145" t="s">
         <v>589</v>
@@ -12209,43 +12217,43 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I145" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L145" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M145" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N145" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O145" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P145" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q145" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R145" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S145" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T145" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U145" t="str">
         <f t="shared" si="2"/>
@@ -12254,13 +12262,13 @@
     </row>
     <row r="146" spans="1:21" ht="14" customHeight="1">
       <c r="A146" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="C146" t="s">
         <v>600</v>
-      </c>
-      <c r="B146" s="16" t="s">
-        <v>601</v>
-      </c>
-      <c r="C146" t="s">
-        <v>602</v>
       </c>
       <c r="D146" t="s">
         <v>589</v>
@@ -12275,43 +12283,43 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I146" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L146" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M146" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N146" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O146" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P146" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q146" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R146" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S146" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T146" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U146" t="str">
         <f t="shared" si="2"/>
@@ -12320,13 +12328,13 @@
     </row>
     <row r="147" spans="1:21" ht="14" customHeight="1">
       <c r="A147" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="C147" t="s">
         <v>604</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>605</v>
-      </c>
-      <c r="C147" t="s">
-        <v>606</v>
       </c>
       <c r="D147" t="s">
         <v>589</v>
@@ -12341,43 +12349,43 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I147" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L147" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M147" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N147" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O147" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P147" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q147" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R147" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S147" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T147" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U147" t="str">
         <f t="shared" si="2"/>
@@ -12386,13 +12394,13 @@
     </row>
     <row r="148" spans="1:21" ht="14" customHeight="1">
       <c r="A148" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="C148" t="s">
         <v>608</v>
-      </c>
-      <c r="B148" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="C148" t="s">
-        <v>610</v>
       </c>
       <c r="D148" t="s">
         <v>589</v>
@@ -12407,43 +12415,43 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I148" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L148" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M148" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N148" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O148" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P148" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q148" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R148" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S148" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T148" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U148" t="str">
         <f t="shared" si="2"/>
@@ -12452,13 +12460,13 @@
     </row>
     <row r="149" spans="1:21" ht="14" customHeight="1">
       <c r="A149" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="C149" t="s">
         <v>612</v>
-      </c>
-      <c r="B149" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="C149" t="s">
-        <v>614</v>
       </c>
       <c r="D149" t="s">
         <v>589</v>
@@ -12473,43 +12481,43 @@
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I149" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L149" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M149" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N149" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O149" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P149" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q149" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R149" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S149" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T149" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U149" t="str">
         <f t="shared" si="2"/>
@@ -12518,13 +12526,13 @@
     </row>
     <row r="150" spans="1:21" ht="14" customHeight="1">
       <c r="A150" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="C150" t="s">
         <v>616</v>
-      </c>
-      <c r="B150" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="C150" t="s">
-        <v>618</v>
       </c>
       <c r="D150" t="s">
         <v>589</v>
@@ -12539,43 +12547,43 @@
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I150" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
       <c r="K150" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L150" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M150" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N150" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O150" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P150" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q150" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R150" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S150" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T150" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U150" t="str">
         <f t="shared" si="2"/>
@@ -12584,13 +12592,13 @@
     </row>
     <row r="151" spans="1:21" ht="14" customHeight="1">
       <c r="A151" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="C151" t="s">
         <v>620</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="C151" t="s">
-        <v>622</v>
       </c>
       <c r="D151" t="s">
         <v>589</v>
@@ -12605,43 +12613,43 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I151" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
       <c r="K151" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L151" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M151" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N151" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O151" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P151" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q151" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R151" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S151" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T151" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U151" t="str">
         <f t="shared" si="2"/>
@@ -12650,13 +12658,13 @@
     </row>
     <row r="152" spans="1:21" ht="14" customHeight="1">
       <c r="A152" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="C152" t="s">
         <v>624</v>
-      </c>
-      <c r="B152" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="C152" t="s">
-        <v>626</v>
       </c>
       <c r="D152" t="s">
         <v>589</v>
@@ -12671,43 +12679,43 @@
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I152" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J152">
         <v>0</v>
       </c>
       <c r="K152" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L152" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M152" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N152" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O152" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P152" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q152" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R152" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S152" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T152" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U152" t="str">
         <f t="shared" si="2"/>
@@ -12716,13 +12724,13 @@
     </row>
     <row r="153" spans="1:21" ht="14" customHeight="1">
       <c r="A153" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="C153" t="s">
         <v>628</v>
-      </c>
-      <c r="B153" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="C153" t="s">
-        <v>630</v>
       </c>
       <c r="D153" t="s">
         <v>589</v>
@@ -12737,43 +12745,43 @@
         <v>1</v>
       </c>
       <c r="H153" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I153" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L153" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M153" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N153" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O153" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P153" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q153" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R153" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S153" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T153" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U153" t="str">
         <f t="shared" si="2"/>
@@ -12782,13 +12790,13 @@
     </row>
     <row r="154" spans="1:21" ht="14" customHeight="1">
       <c r="A154" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="C154" t="s">
         <v>632</v>
-      </c>
-      <c r="B154" s="16" t="s">
-        <v>633</v>
-      </c>
-      <c r="C154" t="s">
-        <v>634</v>
       </c>
       <c r="D154" t="s">
         <v>589</v>
@@ -12803,43 +12811,43 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I154" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J154">
         <v>0</v>
       </c>
       <c r="K154" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L154" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M154" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N154" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O154" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P154" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q154" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R154" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S154" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T154" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U154" t="str">
         <f t="shared" si="2"/>
@@ -12848,13 +12856,13 @@
     </row>
     <row r="155" spans="1:21" ht="14" customHeight="1">
       <c r="A155" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="C155" t="s">
         <v>636</v>
-      </c>
-      <c r="B155" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="C155" t="s">
-        <v>638</v>
       </c>
       <c r="D155" t="s">
         <v>589</v>
@@ -12869,43 +12877,43 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I155" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J155">
         <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L155" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M155" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N155" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O155" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P155" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q155" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R155" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S155" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T155" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U155" t="str">
         <f t="shared" si="2"/>
@@ -12914,13 +12922,13 @@
     </row>
     <row r="156" spans="1:21" ht="14" customHeight="1">
       <c r="A156" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="C156" t="s">
         <v>640</v>
-      </c>
-      <c r="B156" s="16" t="s">
-        <v>641</v>
-      </c>
-      <c r="C156" t="s">
-        <v>642</v>
       </c>
       <c r="D156" t="s">
         <v>589</v>
@@ -12935,43 +12943,43 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I156" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J156">
         <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L156" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M156" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N156" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O156" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P156" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q156" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R156" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S156" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T156" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U156" t="str">
         <f t="shared" si="2"/>
@@ -12980,13 +12988,13 @@
     </row>
     <row r="157" spans="1:21" ht="14" customHeight="1">
       <c r="A157" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="C157" t="s">
         <v>644</v>
-      </c>
-      <c r="B157" s="16" t="s">
-        <v>645</v>
-      </c>
-      <c r="C157" t="s">
-        <v>646</v>
       </c>
       <c r="D157" t="s">
         <v>589</v>
@@ -13001,43 +13009,43 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I157" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L157" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M157" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N157" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O157" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P157" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q157" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R157" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S157" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T157" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U157" t="str">
         <f t="shared" si="2"/>
@@ -13046,13 +13054,13 @@
     </row>
     <row r="158" spans="1:21" ht="14" customHeight="1">
       <c r="A158" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="C158" t="s">
         <v>648</v>
-      </c>
-      <c r="B158" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="C158" t="s">
-        <v>650</v>
       </c>
       <c r="D158" t="s">
         <v>589</v>
@@ -13067,43 +13075,43 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I158" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J158">
         <v>0</v>
       </c>
       <c r="K158" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L158" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M158" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N158" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O158" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P158" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q158" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R158" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S158" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T158" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U158" t="str">
         <f t="shared" si="2"/>
@@ -13112,13 +13120,13 @@
     </row>
     <row r="159" spans="1:21" ht="14" customHeight="1">
       <c r="A159" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="C159" t="s">
         <v>652</v>
-      </c>
-      <c r="B159" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="C159" t="s">
-        <v>654</v>
       </c>
       <c r="D159" t="s">
         <v>589</v>
@@ -13133,43 +13141,43 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I159" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J159">
         <v>0</v>
       </c>
       <c r="K159" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L159" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M159" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N159" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O159" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P159" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q159" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R159" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S159" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T159" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U159" t="str">
         <f t="shared" si="2"/>
@@ -13178,13 +13186,13 @@
     </row>
     <row r="160" spans="1:21" ht="14" customHeight="1">
       <c r="A160" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="C160" t="s">
         <v>656</v>
-      </c>
-      <c r="B160" s="16" t="s">
-        <v>657</v>
-      </c>
-      <c r="C160" t="s">
-        <v>658</v>
       </c>
       <c r="D160" t="s">
         <v>589</v>
@@ -13199,43 +13207,43 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I160" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J160">
         <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L160" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M160" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N160" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O160" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P160" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q160" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R160" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S160" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T160" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U160" t="str">
         <f t="shared" si="2"/>
@@ -13244,13 +13252,13 @@
     </row>
     <row r="161" spans="1:21" ht="14" customHeight="1">
       <c r="A161" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="B161" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="C161" t="s">
         <v>660</v>
-      </c>
-      <c r="B161" s="16" t="s">
-        <v>661</v>
-      </c>
-      <c r="C161" t="s">
-        <v>662</v>
       </c>
       <c r="D161" t="s">
         <v>589</v>
@@ -13265,43 +13273,43 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I161" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J161">
         <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L161" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M161" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N161" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O161" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P161" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q161" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R161" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S161" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T161" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U161" t="str">
         <f t="shared" si="2"/>
@@ -13310,13 +13318,13 @@
     </row>
     <row r="162" spans="1:21" ht="14" customHeight="1">
       <c r="A162" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="C162" t="s">
         <v>664</v>
-      </c>
-      <c r="B162" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="C162" t="s">
-        <v>666</v>
       </c>
       <c r="D162" t="s">
         <v>589</v>
@@ -13331,43 +13339,43 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I162" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L162" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M162" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N162" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O162" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P162" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q162" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R162" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S162" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T162" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U162" t="str">
         <f t="shared" si="2"/>
@@ -13376,13 +13384,13 @@
     </row>
     <row r="163" spans="1:21" ht="14" customHeight="1">
       <c r="A163" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="B163" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="C163" t="s">
         <v>668</v>
-      </c>
-      <c r="B163" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="C163" t="s">
-        <v>670</v>
       </c>
       <c r="D163" t="s">
         <v>589</v>
@@ -13397,43 +13405,43 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I163" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J163">
         <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L163" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M163" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N163" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O163" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P163" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q163" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R163" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S163" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T163" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U163" t="str">
         <f t="shared" si="2"/>
@@ -13442,13 +13450,13 @@
     </row>
     <row r="164" spans="1:21" ht="14" customHeight="1">
       <c r="A164" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="C164" t="s">
         <v>672</v>
-      </c>
-      <c r="B164" s="16" t="s">
-        <v>673</v>
-      </c>
-      <c r="C164" t="s">
-        <v>674</v>
       </c>
       <c r="D164" t="s">
         <v>589</v>
@@ -13463,43 +13471,43 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I164" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L164" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M164" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N164" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O164" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P164" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q164" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R164" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S164" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T164" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U164" t="str">
         <f t="shared" si="2"/>
@@ -13508,13 +13516,13 @@
     </row>
     <row r="165" spans="1:21" ht="14" customHeight="1">
       <c r="A165" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="C165" t="s">
         <v>676</v>
-      </c>
-      <c r="B165" s="16" t="s">
-        <v>677</v>
-      </c>
-      <c r="C165" t="s">
-        <v>678</v>
       </c>
       <c r="D165" t="s">
         <v>589</v>
@@ -13529,43 +13537,43 @@
         <v>1</v>
       </c>
       <c r="H165" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I165" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J165">
         <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L165" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M165" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N165" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O165" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P165" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q165" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R165" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S165" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T165" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U165" t="str">
         <f t="shared" si="2"/>
@@ -13574,13 +13582,13 @@
     </row>
     <row r="166" spans="1:21" ht="14" customHeight="1">
       <c r="A166" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="C166" t="s">
         <v>680</v>
-      </c>
-      <c r="B166" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="C166" t="s">
-        <v>682</v>
       </c>
       <c r="D166" t="s">
         <v>589</v>
@@ -13595,43 +13603,43 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="I166" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J166">
         <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L166" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M166" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N166" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O166" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P166" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q166" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R166" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S166" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T166" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U166" t="str">
         <f t="shared" si="2"/>
@@ -13640,13 +13648,13 @@
     </row>
     <row r="167" spans="1:21" ht="14" customHeight="1">
       <c r="A167" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="B167" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="C167" t="s">
         <v>684</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="C167" t="s">
-        <v>686</v>
       </c>
       <c r="D167" t="s">
         <v>589</v>
@@ -13661,43 +13669,43 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I167" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J167">
         <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L167" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M167" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N167" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O167" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P167" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q167" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R167" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S167" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T167" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U167" t="str">
         <f t="shared" si="2"/>
@@ -13706,13 +13714,13 @@
     </row>
     <row r="168" spans="1:21" ht="14" customHeight="1">
       <c r="A168" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C168" t="s">
         <v>688</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>689</v>
-      </c>
-      <c r="C168" t="s">
-        <v>690</v>
       </c>
       <c r="D168" t="s">
         <v>589</v>
@@ -13727,43 +13735,43 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I168" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L168" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M168" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N168" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O168" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P168" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q168" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R168" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S168" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T168" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U168" t="str">
         <f t="shared" si="2"/>
@@ -13772,13 +13780,13 @@
     </row>
     <row r="169" spans="1:21" ht="14" customHeight="1">
       <c r="A169" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="C169" t="s">
         <v>692</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>693</v>
-      </c>
-      <c r="C169" t="s">
-        <v>694</v>
       </c>
       <c r="D169" t="s">
         <v>589</v>
@@ -13793,43 +13801,43 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I169" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L169" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M169" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N169" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O169" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P169" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q169" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R169" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S169" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T169" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U169" t="str">
         <f t="shared" si="2"/>
@@ -13838,13 +13846,13 @@
     </row>
     <row r="170" spans="1:21" ht="14" customHeight="1">
       <c r="A170" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="C170" t="s">
         <v>696</v>
-      </c>
-      <c r="B170" s="16" t="s">
-        <v>697</v>
-      </c>
-      <c r="C170" t="s">
-        <v>698</v>
       </c>
       <c r="D170" t="s">
         <v>589</v>
@@ -13859,43 +13867,43 @@
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I170" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J170">
         <v>0</v>
       </c>
       <c r="K170" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L170" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M170" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N170" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O170" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P170" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q170" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R170" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S170" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T170" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U170" t="str">
         <f t="shared" si="2"/>
@@ -13904,13 +13912,13 @@
     </row>
     <row r="171" spans="1:21" ht="14" customHeight="1">
       <c r="A171" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="C171" t="s">
         <v>700</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="C171" t="s">
-        <v>702</v>
       </c>
       <c r="D171" t="s">
         <v>589</v>
@@ -13925,43 +13933,43 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I171" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J171">
         <v>0</v>
       </c>
       <c r="K171" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L171" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M171" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N171" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O171" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P171" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q171" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R171" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S171" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T171" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U171" t="str">
         <f t="shared" si="2"/>
@@ -13970,13 +13978,13 @@
     </row>
     <row r="172" spans="1:21" ht="14" customHeight="1">
       <c r="A172" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="C172" t="s">
         <v>704</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>705</v>
-      </c>
-      <c r="C172" t="s">
-        <v>706</v>
       </c>
       <c r="D172" t="s">
         <v>589</v>
@@ -13991,43 +13999,43 @@
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I172" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
       <c r="K172" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L172" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M172" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N172" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O172" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P172" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q172" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="R172" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S172" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T172" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U172" t="str">
         <f t="shared" si="2"/>
@@ -14090,7 +14098,6 @@
     <hyperlink ref="E112" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
